--- a/media/ficha/Termo de Responsabilidade Equipamentos de Medição_Atualizado-Luan Araújo.xlsx
+++ b/media/ficha/Termo de Responsabilidade Equipamentos de Medição_Atualizado-Luan Araújo.xlsx
@@ -406,6 +406,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -423,34 +451,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -498,22 +498,37 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -570,26 +585,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
@@ -605,7 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -615,7 +615,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -771,6 +771,131 @@
       </spPr>
     </pic>
     <clientData fLocksWithSheet="0"/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1619250" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1619250" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1619250" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1619250" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
   </oneCellAnchor>
 </wsDr>
 </file>
@@ -977,10 +1102,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G2"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1103,7 +1228,7 @@
           <t>Colaborador:</t>
         </is>
       </c>
-      <c r="B6" s="58" t="inlineStr">
+      <c r="B6" s="21" t="inlineStr">
         <is>
           <t>Luan Araújo</t>
         </is>
@@ -1117,7 +1242,7 @@
           <t>Matrícula:</t>
         </is>
       </c>
-      <c r="H6" s="58" t="inlineStr">
+      <c r="H6" s="21" t="inlineStr">
         <is>
           <t>4357</t>
         </is>
@@ -1132,7 +1257,7 @@
           <t>Função:</t>
         </is>
       </c>
-      <c r="B7" s="58" t="n"/>
+      <c r="B7" s="21" t="n"/>
       <c r="C7" s="80" t="n"/>
       <c r="D7" s="80" t="n"/>
       <c r="E7" s="80" t="n"/>
@@ -1142,7 +1267,7 @@
           <t>Setor alocado:</t>
         </is>
       </c>
-      <c r="H7" s="58" t="inlineStr">
+      <c r="H7" s="21" t="inlineStr">
         <is>
           <t>Corte e estamparia</t>
         </is>
@@ -1177,58 +1302,58 @@
       <c r="K10" s="68" t="n"/>
     </row>
     <row r="11" ht="12.75" customHeight="1" s="6">
-      <c r="A11" s="38" t="n"/>
-      <c r="K11" s="39" t="n"/>
+      <c r="A11" s="43" t="n"/>
+      <c r="K11" s="44" t="n"/>
     </row>
     <row r="12" ht="38.25" customHeight="1" s="6">
-      <c r="A12" s="38" t="n"/>
-      <c r="C12" s="54" t="n"/>
+      <c r="A12" s="43" t="n"/>
+      <c r="C12" s="22" t="n"/>
       <c r="D12" s="82" t="n"/>
       <c r="E12" s="82" t="n"/>
-      <c r="G12" s="54" t="n"/>
+      <c r="G12" s="22" t="n"/>
       <c r="H12" s="82" t="n"/>
       <c r="I12" s="82" t="n"/>
-      <c r="K12" s="39" t="n"/>
+      <c r="K12" s="44" t="n"/>
     </row>
     <row r="13" ht="12.75" customHeight="1" s="6">
-      <c r="A13" s="38" t="n"/>
-      <c r="C13" s="60" t="inlineStr">
+      <c r="A13" s="43" t="n"/>
+      <c r="C13" s="26" t="inlineStr">
         <is>
           <t>Assinatura do Funcionário</t>
         </is>
       </c>
-      <c r="G13" s="59" t="inlineStr">
+      <c r="G13" s="25" t="inlineStr">
         <is>
           <t>Assinatura do Supervisor da área</t>
         </is>
       </c>
-      <c r="K13" s="39" t="n"/>
+      <c r="K13" s="44" t="n"/>
     </row>
     <row r="14" ht="12.75" customHeight="1" s="6">
-      <c r="A14" s="38" t="n"/>
-      <c r="K14" s="39" t="n"/>
+      <c r="A14" s="43" t="n"/>
+      <c r="K14" s="44" t="n"/>
     </row>
     <row r="15" ht="12.75" customHeight="1" s="6">
-      <c r="A15" s="38" t="n"/>
+      <c r="A15" s="43" t="n"/>
       <c r="B15" s="14" t="inlineStr">
         <is>
           <t>Data: ___/___/_____</t>
         </is>
       </c>
-      <c r="K15" s="39" t="n"/>
+      <c r="K15" s="44" t="n"/>
     </row>
     <row r="16" ht="12.75" customHeight="1" s="6">
-      <c r="A16" s="41" t="n"/>
+      <c r="A16" s="46" t="n"/>
       <c r="B16" s="7" t="n"/>
       <c r="C16" s="7" t="n"/>
       <c r="D16" s="7" t="n"/>
       <c r="E16" s="7" t="n"/>
       <c r="F16" s="7" t="n"/>
-      <c r="G16" s="33" t="n"/>
-      <c r="H16" s="33" t="n"/>
-      <c r="I16" s="33" t="n"/>
-      <c r="J16" s="33" t="n"/>
-      <c r="K16" s="34" t="n"/>
+      <c r="G16" s="38" t="n"/>
+      <c r="H16" s="38" t="n"/>
+      <c r="I16" s="38" t="n"/>
+      <c r="J16" s="38" t="n"/>
+      <c r="K16" s="39" t="n"/>
     </row>
     <row r="17" ht="12.75" customHeight="1" s="6">
       <c r="A17" s="16" t="inlineStr">
@@ -1256,7 +1381,7 @@
       </c>
       <c r="H17" s="8" t="inlineStr">
         <is>
-          <t>Motivo Devol.</t>
+          <t>Motivo</t>
         </is>
       </c>
       <c r="I17" s="8" t="inlineStr">
@@ -1274,7 +1399,7 @@
     <row r="18" ht="57.75" customHeight="1" s="6">
       <c r="A18" s="17" t="inlineStr">
         <is>
-          <t>14/01/2025</t>
+          <t>16/01/2025</t>
         </is>
       </c>
       <c r="B18" s="17" t="inlineStr">
@@ -1286,18 +1411,18 @@
       <c r="D18" s="85" t="n"/>
       <c r="E18" s="17" t="inlineStr">
         <is>
-          <t>PAQ-003</t>
+          <t>PAQ-001</t>
         </is>
       </c>
       <c r="F18" s="85" t="n"/>
       <c r="G18" s="18" t="inlineStr">
         <is>
-          <t>0 - 700</t>
+          <t>0 - 600</t>
         </is>
       </c>
       <c r="H18" s="18" t="inlineStr">
         <is>
-          <t>Primeira Entrega</t>
+          <t>Entrega</t>
         </is>
       </c>
       <c r="I18" s="17" t="n"/>
@@ -1307,7 +1432,7 @@
     <row r="19" ht="57.75" customHeight="1" s="6">
       <c r="A19" s="17" t="inlineStr">
         <is>
-          <t>15/01/2025</t>
+          <t>16/01/2025</t>
         </is>
       </c>
       <c r="B19" s="17" t="inlineStr">
@@ -1330,7 +1455,7 @@
       </c>
       <c r="H19" s="18" t="inlineStr">
         <is>
-          <t>Primeira Entrega</t>
+          <t>Entrega</t>
         </is>
       </c>
       <c r="I19" s="17" t="n"/>
@@ -1340,7 +1465,7 @@
     <row r="20" ht="57.75" customHeight="1" s="6">
       <c r="A20" s="17" t="inlineStr">
         <is>
-          <t>13/01/2025</t>
+          <t>16/01/2025</t>
         </is>
       </c>
       <c r="B20" s="17" t="inlineStr">
@@ -1352,68 +1477,250 @@
       <c r="D20" s="85" t="n"/>
       <c r="E20" s="17" t="inlineStr">
         <is>
-          <t>PAQ-001</t>
+          <t>PAQ-003</t>
         </is>
       </c>
       <c r="F20" s="85" t="n"/>
       <c r="G20" s="18" t="inlineStr">
         <is>
-          <t>0 - 600</t>
+          <t>0 - 700</t>
         </is>
       </c>
       <c r="H20" s="18" t="inlineStr">
         <is>
-          <t>Primeira Entrega</t>
+          <t>Entrega</t>
         </is>
       </c>
       <c r="I20" s="17" t="n"/>
       <c r="J20" s="17" t="n"/>
       <c r="K20" s="85" t="n"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1" s="6">
-      <c r="A21" s="7" t="n"/>
-      <c r="B21" s="7" t="n"/>
-      <c r="C21" s="7" t="n"/>
-      <c r="D21" s="7" t="n"/>
-      <c r="E21" s="7" t="n"/>
-      <c r="F21" s="7" t="n"/>
-      <c r="G21" s="7" t="n"/>
-      <c r="H21" s="7" t="n"/>
-      <c r="I21" s="7" t="n"/>
-      <c r="J21" s="7" t="n"/>
-      <c r="K21" s="7" t="n"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1" s="6"/>
+    <row r="21" ht="57.75" customHeight="1" s="6">
+      <c r="A21" s="17" t="inlineStr">
+        <is>
+          <t>16/01/2025</t>
+        </is>
+      </c>
+      <c r="B21" s="17" t="inlineStr">
+        <is>
+          <t>Paquímetro analógico</t>
+        </is>
+      </c>
+      <c r="C21" s="84" t="n"/>
+      <c r="D21" s="85" t="n"/>
+      <c r="E21" s="17" t="inlineStr">
+        <is>
+          <t>PAQ-004</t>
+        </is>
+      </c>
+      <c r="F21" s="85" t="n"/>
+      <c r="G21" s="18" t="inlineStr">
+        <is>
+          <t>0 - 750</t>
+        </is>
+      </c>
+      <c r="H21" s="18" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="I21" s="17" t="n"/>
+      <c r="J21" s="17" t="n"/>
+      <c r="K21" s="85" t="n"/>
+    </row>
+    <row r="22" ht="57.75" customHeight="1" s="6">
+      <c r="A22" s="17" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="B22" s="17" t="inlineStr">
+        <is>
+          <t>Paquímetro analógico</t>
+        </is>
+      </c>
+      <c r="C22" s="84" t="n"/>
+      <c r="D22" s="85" t="n"/>
+      <c r="E22" s="17" t="inlineStr">
+        <is>
+          <t>PAQ-001</t>
+        </is>
+      </c>
+      <c r="F22" s="85" t="n"/>
+      <c r="G22" s="18" t="inlineStr">
+        <is>
+          <t>0 - 600</t>
+        </is>
+      </c>
+      <c r="H22" s="18" t="inlineStr">
+        <is>
+          <t>devolução</t>
+        </is>
+      </c>
+      <c r="I22" s="17" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="J22" s="17" t="n"/>
+      <c r="K22" s="85" t="n"/>
+    </row>
+    <row r="23" ht="57.75" customHeight="1" s="6">
+      <c r="A23" s="17" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="B23" s="17" t="inlineStr">
+        <is>
+          <t>Paquímetro analógico</t>
+        </is>
+      </c>
+      <c r="C23" s="84" t="n"/>
+      <c r="D23" s="85" t="n"/>
+      <c r="E23" s="17" t="inlineStr">
+        <is>
+          <t>PAQ-002</t>
+        </is>
+      </c>
+      <c r="F23" s="85" t="n"/>
+      <c r="G23" s="18" t="inlineStr">
+        <is>
+          <t>0 - 120</t>
+        </is>
+      </c>
+      <c r="H23" s="18" t="inlineStr">
+        <is>
+          <t>devolução</t>
+        </is>
+      </c>
+      <c r="I23" s="17" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="J23" s="17" t="n"/>
+      <c r="K23" s="85" t="n"/>
+    </row>
+    <row r="24" ht="57.75" customHeight="1" s="6">
+      <c r="A24" s="17" t="inlineStr">
+        <is>
+          <t>21/01/2025</t>
+        </is>
+      </c>
+      <c r="B24" s="17" t="inlineStr">
+        <is>
+          <t>Paquímetro analógico</t>
+        </is>
+      </c>
+      <c r="C24" s="84" t="n"/>
+      <c r="D24" s="85" t="n"/>
+      <c r="E24" s="17" t="inlineStr">
+        <is>
+          <t>PAQ-003</t>
+        </is>
+      </c>
+      <c r="F24" s="85" t="n"/>
+      <c r="G24" s="18" t="inlineStr">
+        <is>
+          <t>0 - 700</t>
+        </is>
+      </c>
+      <c r="H24" s="18" t="inlineStr">
+        <is>
+          <t>devolução</t>
+        </is>
+      </c>
+      <c r="I24" s="17" t="inlineStr">
+        <is>
+          <t>21/01/2025</t>
+        </is>
+      </c>
+      <c r="J24" s="17" t="n"/>
+      <c r="K24" s="85" t="n"/>
+    </row>
+    <row r="25" ht="57.75" customHeight="1" s="6">
+      <c r="A25" s="17" t="inlineStr">
+        <is>
+          <t>22/01/2025</t>
+        </is>
+      </c>
+      <c r="B25" s="17" t="inlineStr">
+        <is>
+          <t>Paquímetro analógico</t>
+        </is>
+      </c>
+      <c r="C25" s="84" t="n"/>
+      <c r="D25" s="85" t="n"/>
+      <c r="E25" s="17" t="inlineStr">
+        <is>
+          <t>PAQ-004</t>
+        </is>
+      </c>
+      <c r="F25" s="85" t="n"/>
+      <c r="G25" s="18" t="inlineStr">
+        <is>
+          <t>0 - 750</t>
+        </is>
+      </c>
+      <c r="H25" s="18" t="inlineStr">
+        <is>
+          <t>devolução</t>
+        </is>
+      </c>
+      <c r="I25" s="17" t="inlineStr">
+        <is>
+          <t>22/01/2025</t>
+        </is>
+      </c>
+      <c r="J25" s="17" t="n"/>
+      <c r="K25" s="85" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="45">
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="J19:K19"/>
+    <mergeCell ref="E23:F23"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="K1:K4"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J24:K24"/>
     <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B24:D24"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="C3:G4"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="C13:E13"/>
+    <mergeCell ref="J25:K25"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J21:K21"/>
     <mergeCell ref="A8:K10"/>
     <mergeCell ref="B6:F6"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:G2"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="H7:K7"/>
+    <mergeCell ref="J23:K23"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="J17:K17"/>
   </mergeCells>

--- a/media/ficha/Termo de Responsabilidade Equipamentos de Medição_Atualizado-Luan Araújo.xlsx
+++ b/media/ficha/Termo de Responsabilidade Equipamentos de Medição_Atualizado-Luan Araújo.xlsx
@@ -406,6 +406,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -431,33 +451,13 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -498,39 +498,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -585,11 +552,47 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
@@ -605,7 +608,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -615,7 +618,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -801,7 +804,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>18</row>
+      <row>19</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1619250" cy="762000"/>
@@ -826,7 +829,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>21</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1619250" cy="762000"/>
@@ -849,31 +852,6 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>20</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1619250" cy="762000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
       <col>3</col>
       <colOff>0</colOff>
       <row>11</row>
@@ -882,11 +860,11 @@
     <ext cx="952500" cy="476250"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1102,10 +1080,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1118,109 +1096,109 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" s="6">
-      <c r="A1" s="61" t="n"/>
-      <c r="B1" s="62" t="n"/>
-      <c r="C1" s="63" t="inlineStr">
+      <c r="A1" s="62" t="n"/>
+      <c r="B1" s="63" t="n"/>
+      <c r="C1" s="64" t="inlineStr">
         <is>
           <t>Registro da Qualidade</t>
         </is>
       </c>
-      <c r="D1" s="64" t="n"/>
-      <c r="E1" s="64" t="n"/>
-      <c r="F1" s="64" t="n"/>
-      <c r="G1" s="62" t="n"/>
-      <c r="H1" s="65" t="inlineStr">
+      <c r="D1" s="65" t="n"/>
+      <c r="E1" s="65" t="n"/>
+      <c r="F1" s="65" t="n"/>
+      <c r="G1" s="63" t="n"/>
+      <c r="H1" s="66" t="inlineStr">
         <is>
           <t>Código:</t>
         </is>
       </c>
-      <c r="I1" s="66" t="n"/>
+      <c r="I1" s="67" t="n"/>
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>RQ CQ-038-000</t>
         </is>
       </c>
-      <c r="K1" s="61" t="n"/>
+      <c r="K1" s="62" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" s="6">
-      <c r="A2" s="67" t="n"/>
-      <c r="B2" s="68" t="n"/>
-      <c r="C2" s="69" t="n"/>
-      <c r="D2" s="70" t="n"/>
-      <c r="E2" s="70" t="n"/>
-      <c r="F2" s="70" t="n"/>
-      <c r="G2" s="71" t="n"/>
-      <c r="H2" s="65" t="inlineStr">
+      <c r="A2" s="68" t="n"/>
+      <c r="B2" s="69" t="n"/>
+      <c r="C2" s="70" t="n"/>
+      <c r="D2" s="71" t="n"/>
+      <c r="E2" s="71" t="n"/>
+      <c r="F2" s="71" t="n"/>
+      <c r="G2" s="72" t="n"/>
+      <c r="H2" s="66" t="inlineStr">
         <is>
           <t>Data de Emissão:</t>
         </is>
       </c>
-      <c r="I2" s="66" t="n"/>
+      <c r="I2" s="67" t="n"/>
       <c r="J2" s="3" t="n">
         <v>45293</v>
       </c>
-      <c r="K2" s="72" t="n"/>
+      <c r="K2" s="73" t="n"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" s="6">
-      <c r="A3" s="67" t="n"/>
-      <c r="B3" s="68" t="n"/>
-      <c r="C3" s="73" t="inlineStr">
+      <c r="A3" s="68" t="n"/>
+      <c r="B3" s="69" t="n"/>
+      <c r="C3" s="74" t="inlineStr">
         <is>
           <t>Controle da Qualidade</t>
         </is>
       </c>
-      <c r="D3" s="64" t="n"/>
-      <c r="E3" s="64" t="n"/>
-      <c r="F3" s="64" t="n"/>
-      <c r="G3" s="62" t="n"/>
-      <c r="H3" s="65" t="inlineStr">
+      <c r="D3" s="65" t="n"/>
+      <c r="E3" s="65" t="n"/>
+      <c r="F3" s="65" t="n"/>
+      <c r="G3" s="63" t="n"/>
+      <c r="H3" s="66" t="inlineStr">
         <is>
           <t>Data da Última Revisão:</t>
         </is>
       </c>
-      <c r="I3" s="66" t="n"/>
+      <c r="I3" s="67" t="n"/>
       <c r="J3" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K3" s="72" t="n"/>
+      <c r="K3" s="73" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" s="6">
-      <c r="A4" s="74" t="n"/>
-      <c r="B4" s="75" t="n"/>
-      <c r="C4" s="74" t="n"/>
-      <c r="D4" s="76" t="n"/>
-      <c r="E4" s="76" t="n"/>
-      <c r="F4" s="76" t="n"/>
-      <c r="G4" s="75" t="n"/>
-      <c r="H4" s="77" t="inlineStr">
+      <c r="A4" s="75" t="n"/>
+      <c r="B4" s="76" t="n"/>
+      <c r="C4" s="75" t="n"/>
+      <c r="D4" s="77" t="n"/>
+      <c r="E4" s="77" t="n"/>
+      <c r="F4" s="77" t="n"/>
+      <c r="G4" s="76" t="n"/>
+      <c r="H4" s="78" t="inlineStr">
         <is>
           <t>Página:</t>
         </is>
       </c>
-      <c r="I4" s="75" t="n"/>
+      <c r="I4" s="76" t="n"/>
       <c r="J4" s="4" t="n">
         <v>45658</v>
       </c>
-      <c r="K4" s="78" t="n"/>
+      <c r="K4" s="79" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1" s="6">
-      <c r="A5" s="79" t="inlineStr">
+      <c r="A5" s="80" t="inlineStr">
         <is>
           <t>TERMO DE RESPONSABILIDADE EQUIPAMENTOS DE MEDIÇÃO CALIBRADOS</t>
         </is>
       </c>
-      <c r="B5" s="70" t="n"/>
-      <c r="C5" s="70" t="n"/>
-      <c r="D5" s="70" t="n"/>
-      <c r="E5" s="70" t="n"/>
-      <c r="F5" s="70" t="n"/>
-      <c r="G5" s="70" t="n"/>
-      <c r="H5" s="70" t="n"/>
-      <c r="I5" s="70" t="n"/>
-      <c r="J5" s="70" t="n"/>
-      <c r="K5" s="71" t="n"/>
+      <c r="B5" s="71" t="n"/>
+      <c r="C5" s="71" t="n"/>
+      <c r="D5" s="71" t="n"/>
+      <c r="E5" s="71" t="n"/>
+      <c r="F5" s="71" t="n"/>
+      <c r="G5" s="71" t="n"/>
+      <c r="H5" s="71" t="n"/>
+      <c r="I5" s="71" t="n"/>
+      <c r="J5" s="71" t="n"/>
+      <c r="K5" s="72" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="6">
       <c r="A6" s="15" t="inlineStr">
@@ -1228,28 +1206,28 @@
           <t>Colaborador:</t>
         </is>
       </c>
-      <c r="B6" s="21" t="inlineStr">
+      <c r="B6" s="52" t="inlineStr">
         <is>
           <t>Luan Araújo</t>
         </is>
       </c>
-      <c r="C6" s="80" t="n"/>
-      <c r="D6" s="80" t="n"/>
-      <c r="E6" s="80" t="n"/>
-      <c r="F6" s="66" t="n"/>
+      <c r="C6" s="81" t="n"/>
+      <c r="D6" s="81" t="n"/>
+      <c r="E6" s="81" t="n"/>
+      <c r="F6" s="67" t="n"/>
       <c r="G6" s="15" t="inlineStr">
         <is>
           <t>Matrícula:</t>
         </is>
       </c>
-      <c r="H6" s="21" t="inlineStr">
+      <c r="H6" s="52" t="inlineStr">
         <is>
           <t>4357</t>
         </is>
       </c>
-      <c r="I6" s="80" t="n"/>
-      <c r="J6" s="80" t="n"/>
-      <c r="K6" s="66" t="n"/>
+      <c r="I6" s="81" t="n"/>
+      <c r="J6" s="81" t="n"/>
+      <c r="K6" s="67" t="n"/>
     </row>
     <row r="7" ht="12.75" customHeight="1" s="6">
       <c r="A7" s="15" t="inlineStr">
@@ -1257,103 +1235,103 @@
           <t>Função:</t>
         </is>
       </c>
-      <c r="B7" s="21" t="n"/>
-      <c r="C7" s="80" t="n"/>
-      <c r="D7" s="80" t="n"/>
-      <c r="E7" s="80" t="n"/>
-      <c r="F7" s="66" t="n"/>
+      <c r="B7" s="52" t="n"/>
+      <c r="C7" s="81" t="n"/>
+      <c r="D7" s="81" t="n"/>
+      <c r="E7" s="81" t="n"/>
+      <c r="F7" s="67" t="n"/>
       <c r="G7" s="15" t="inlineStr">
         <is>
           <t>Setor alocado:</t>
         </is>
       </c>
-      <c r="H7" s="21" t="inlineStr">
+      <c r="H7" s="52" t="inlineStr">
         <is>
           <t>Corte e estamparia</t>
         </is>
       </c>
-      <c r="I7" s="80" t="n"/>
-      <c r="J7" s="80" t="n"/>
-      <c r="K7" s="66" t="n"/>
+      <c r="I7" s="81" t="n"/>
+      <c r="J7" s="81" t="n"/>
+      <c r="K7" s="67" t="n"/>
     </row>
     <row r="8" ht="12.75" customHeight="1" s="6">
-      <c r="A8" s="81" t="inlineStr">
+      <c r="A8" s="82" t="inlineStr">
         <is>
           <t xml:space="preserve">Por meio deste documento, me responsabilizo pelo correto manuseio, limpeza e armazenamento dos equipamentos de medição fornecidos. Estando passível de ressarcimento, diante de demonstração de má uso ou perda do material </t>
         </is>
       </c>
-      <c r="B8" s="64" t="n"/>
-      <c r="C8" s="64" t="n"/>
-      <c r="D8" s="64" t="n"/>
-      <c r="E8" s="64" t="n"/>
-      <c r="F8" s="64" t="n"/>
-      <c r="G8" s="64" t="n"/>
-      <c r="H8" s="64" t="n"/>
-      <c r="I8" s="64" t="n"/>
-      <c r="J8" s="64" t="n"/>
-      <c r="K8" s="62" t="n"/>
+      <c r="B8" s="65" t="n"/>
+      <c r="C8" s="65" t="n"/>
+      <c r="D8" s="65" t="n"/>
+      <c r="E8" s="65" t="n"/>
+      <c r="F8" s="65" t="n"/>
+      <c r="G8" s="65" t="n"/>
+      <c r="H8" s="65" t="n"/>
+      <c r="I8" s="65" t="n"/>
+      <c r="J8" s="65" t="n"/>
+      <c r="K8" s="63" t="n"/>
     </row>
     <row r="9" ht="12.75" customHeight="1" s="6">
-      <c r="A9" s="67" t="n"/>
-      <c r="K9" s="68" t="n"/>
+      <c r="A9" s="68" t="n"/>
+      <c r="K9" s="69" t="n"/>
     </row>
     <row r="10" ht="12.75" customHeight="1" s="6">
-      <c r="A10" s="67" t="n"/>
-      <c r="K10" s="68" t="n"/>
+      <c r="A10" s="68" t="n"/>
+      <c r="K10" s="69" t="n"/>
     </row>
     <row r="11" ht="12.75" customHeight="1" s="6">
-      <c r="A11" s="43" t="n"/>
-      <c r="K11" s="44" t="n"/>
+      <c r="A11" s="32" t="n"/>
+      <c r="K11" s="33" t="n"/>
     </row>
     <row r="12" ht="38.25" customHeight="1" s="6">
-      <c r="A12" s="43" t="n"/>
-      <c r="C12" s="22" t="n"/>
-      <c r="D12" s="82" t="n"/>
-      <c r="E12" s="82" t="n"/>
-      <c r="G12" s="22" t="n"/>
-      <c r="H12" s="82" t="n"/>
-      <c r="I12" s="82" t="n"/>
-      <c r="K12" s="44" t="n"/>
+      <c r="A12" s="32" t="n"/>
+      <c r="C12" s="48" t="n"/>
+      <c r="D12" s="83" t="n"/>
+      <c r="E12" s="83" t="n"/>
+      <c r="G12" s="48" t="n"/>
+      <c r="H12" s="83" t="n"/>
+      <c r="I12" s="83" t="n"/>
+      <c r="K12" s="33" t="n"/>
     </row>
     <row r="13" ht="12.75" customHeight="1" s="6">
-      <c r="A13" s="43" t="n"/>
-      <c r="C13" s="26" t="inlineStr">
+      <c r="A13" s="32" t="n"/>
+      <c r="C13" s="56" t="inlineStr">
         <is>
           <t>Assinatura do Funcionário</t>
         </is>
       </c>
-      <c r="G13" s="25" t="inlineStr">
+      <c r="G13" s="55" t="inlineStr">
         <is>
           <t>Assinatura do Supervisor da área</t>
         </is>
       </c>
-      <c r="K13" s="44" t="n"/>
+      <c r="K13" s="33" t="n"/>
     </row>
     <row r="14" ht="12.75" customHeight="1" s="6">
-      <c r="A14" s="43" t="n"/>
-      <c r="K14" s="44" t="n"/>
+      <c r="A14" s="32" t="n"/>
+      <c r="K14" s="33" t="n"/>
     </row>
     <row r="15" ht="12.75" customHeight="1" s="6">
-      <c r="A15" s="43" t="n"/>
+      <c r="A15" s="32" t="n"/>
       <c r="B15" s="14" t="inlineStr">
         <is>
           <t>Data: ___/___/_____</t>
         </is>
       </c>
-      <c r="K15" s="44" t="n"/>
+      <c r="K15" s="33" t="n"/>
     </row>
     <row r="16" ht="12.75" customHeight="1" s="6">
-      <c r="A16" s="46" t="n"/>
+      <c r="A16" s="35" t="n"/>
       <c r="B16" s="7" t="n"/>
       <c r="C16" s="7" t="n"/>
       <c r="D16" s="7" t="n"/>
       <c r="E16" s="7" t="n"/>
       <c r="F16" s="7" t="n"/>
-      <c r="G16" s="38" t="n"/>
-      <c r="H16" s="38" t="n"/>
-      <c r="I16" s="38" t="n"/>
-      <c r="J16" s="38" t="n"/>
-      <c r="K16" s="39" t="n"/>
+      <c r="G16" s="27" t="n"/>
+      <c r="H16" s="27" t="n"/>
+      <c r="I16" s="27" t="n"/>
+      <c r="J16" s="27" t="n"/>
+      <c r="K16" s="28" t="n"/>
     </row>
     <row r="17" ht="12.75" customHeight="1" s="6">
       <c r="A17" s="16" t="inlineStr">
@@ -1361,19 +1339,19 @@
           <t>Data Entrega</t>
         </is>
       </c>
-      <c r="B17" s="83" t="inlineStr">
+      <c r="B17" s="84" t="inlineStr">
         <is>
           <t>Equipamento</t>
         </is>
       </c>
-      <c r="C17" s="84" t="n"/>
-      <c r="D17" s="85" t="n"/>
+      <c r="C17" s="85" t="n"/>
+      <c r="D17" s="86" t="n"/>
       <c r="E17" s="18" t="inlineStr">
         <is>
           <t>Identificação (TAG)</t>
         </is>
       </c>
-      <c r="F17" s="85" t="n"/>
+      <c r="F17" s="86" t="n"/>
       <c r="G17" s="19" t="inlineStr">
         <is>
           <t>Faixa Nominal</t>
@@ -1389,17 +1367,17 @@
           <t>Data devol.</t>
         </is>
       </c>
-      <c r="J17" s="86" t="inlineStr">
+      <c r="J17" s="87" t="inlineStr">
         <is>
           <t>Rubrica do Empregado</t>
         </is>
       </c>
-      <c r="K17" s="87" t="n"/>
+      <c r="K17" s="88" t="n"/>
     </row>
     <row r="18" ht="57.75" customHeight="1" s="6">
       <c r="A18" s="17" t="inlineStr">
         <is>
-          <t>16/01/2025</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B18" s="17" t="inlineStr">
@@ -1407,32 +1385,32 @@
           <t>Paquímetro analógico</t>
         </is>
       </c>
-      <c r="C18" s="84" t="n"/>
-      <c r="D18" s="85" t="n"/>
+      <c r="C18" s="85" t="n"/>
+      <c r="D18" s="86" t="n"/>
       <c r="E18" s="17" t="inlineStr">
         <is>
           <t>PAQ-001</t>
         </is>
       </c>
-      <c r="F18" s="85" t="n"/>
+      <c r="F18" s="86" t="n"/>
       <c r="G18" s="18" t="inlineStr">
         <is>
           <t>0 - 600</t>
         </is>
       </c>
-      <c r="H18" s="18" t="inlineStr">
+      <c r="H18" s="61" t="inlineStr">
         <is>
           <t>Entrega</t>
         </is>
       </c>
       <c r="I18" s="17" t="n"/>
       <c r="J18" s="17" t="n"/>
-      <c r="K18" s="85" t="n"/>
+      <c r="K18" s="86" t="n"/>
     </row>
     <row r="19" ht="57.75" customHeight="1" s="6">
       <c r="A19" s="17" t="inlineStr">
         <is>
-          <t>16/01/2025</t>
+          <t>06/01/2025</t>
         </is>
       </c>
       <c r="B19" s="17" t="inlineStr">
@@ -1440,32 +1418,36 @@
           <t>Paquímetro analógico</t>
         </is>
       </c>
-      <c r="C19" s="84" t="n"/>
-      <c r="D19" s="85" t="n"/>
+      <c r="C19" s="85" t="n"/>
+      <c r="D19" s="86" t="n"/>
       <c r="E19" s="17" t="inlineStr">
         <is>
-          <t>PAQ-002</t>
-        </is>
-      </c>
-      <c r="F19" s="85" t="n"/>
+          <t>PAQ-001</t>
+        </is>
+      </c>
+      <c r="F19" s="86" t="n"/>
       <c r="G19" s="18" t="inlineStr">
         <is>
-          <t>0 - 120</t>
-        </is>
-      </c>
-      <c r="H19" s="18" t="inlineStr">
-        <is>
-          <t>Entrega</t>
-        </is>
-      </c>
-      <c r="I19" s="17" t="n"/>
+          <t>0 - 600</t>
+        </is>
+      </c>
+      <c r="H19" s="61" t="inlineStr">
+        <is>
+          <t>substituição</t>
+        </is>
+      </c>
+      <c r="I19" s="17" t="inlineStr">
+        <is>
+          <t>06/01/2025</t>
+        </is>
+      </c>
       <c r="J19" s="17" t="n"/>
-      <c r="K19" s="85" t="n"/>
+      <c r="K19" s="86" t="n"/>
     </row>
     <row r="20" ht="57.75" customHeight="1" s="6">
       <c r="A20" s="17" t="inlineStr">
         <is>
-          <t>16/01/2025</t>
+          <t>06/01/2025</t>
         </is>
       </c>
       <c r="B20" s="17" t="inlineStr">
@@ -1473,32 +1455,32 @@
           <t>Paquímetro analógico</t>
         </is>
       </c>
-      <c r="C20" s="84" t="n"/>
-      <c r="D20" s="85" t="n"/>
+      <c r="C20" s="85" t="n"/>
+      <c r="D20" s="86" t="n"/>
       <c r="E20" s="17" t="inlineStr">
         <is>
-          <t>PAQ-003</t>
-        </is>
-      </c>
-      <c r="F20" s="85" t="n"/>
+          <t>PAQ-002</t>
+        </is>
+      </c>
+      <c r="F20" s="86" t="n"/>
       <c r="G20" s="18" t="inlineStr">
         <is>
-          <t>0 - 700</t>
-        </is>
-      </c>
-      <c r="H20" s="18" t="inlineStr">
-        <is>
-          <t>Entrega</t>
+          <t>0 - 120</t>
+        </is>
+      </c>
+      <c r="H20" s="61" t="inlineStr">
+        <is>
+          <t>Entrega - Temporária</t>
         </is>
       </c>
       <c r="I20" s="17" t="n"/>
       <c r="J20" s="17" t="n"/>
-      <c r="K20" s="85" t="n"/>
+      <c r="K20" s="86" t="n"/>
     </row>
     <row r="21" ht="57.75" customHeight="1" s="6">
       <c r="A21" s="17" t="inlineStr">
         <is>
-          <t>16/01/2025</t>
+          <t>10/01/2025</t>
         </is>
       </c>
       <c r="B21" s="17" t="inlineStr">
@@ -1506,32 +1488,36 @@
           <t>Paquímetro analógico</t>
         </is>
       </c>
-      <c r="C21" s="84" t="n"/>
-      <c r="D21" s="85" t="n"/>
+      <c r="C21" s="85" t="n"/>
+      <c r="D21" s="86" t="n"/>
       <c r="E21" s="17" t="inlineStr">
         <is>
-          <t>PAQ-004</t>
-        </is>
-      </c>
-      <c r="F21" s="85" t="n"/>
+          <t>PAQ-002</t>
+        </is>
+      </c>
+      <c r="F21" s="86" t="n"/>
       <c r="G21" s="18" t="inlineStr">
         <is>
-          <t>0 - 750</t>
-        </is>
-      </c>
-      <c r="H21" s="18" t="inlineStr">
-        <is>
-          <t>Entrega</t>
-        </is>
-      </c>
-      <c r="I21" s="17" t="n"/>
+          <t>0 - 120</t>
+        </is>
+      </c>
+      <c r="H21" s="61" t="inlineStr">
+        <is>
+          <t>devolução</t>
+        </is>
+      </c>
+      <c r="I21" s="17" t="inlineStr">
+        <is>
+          <t>10/01/2025</t>
+        </is>
+      </c>
       <c r="J21" s="17" t="n"/>
-      <c r="K21" s="85" t="n"/>
+      <c r="K21" s="86" t="n"/>
     </row>
     <row r="22" ht="57.75" customHeight="1" s="6">
       <c r="A22" s="17" t="inlineStr">
         <is>
-          <t>20/01/2025</t>
+          <t>16/01/2025</t>
         </is>
       </c>
       <c r="B22" s="17" t="inlineStr">
@@ -1539,179 +1525,56 @@
           <t>Paquímetro analógico</t>
         </is>
       </c>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="85" t="n"/>
+      <c r="C22" s="85" t="n"/>
+      <c r="D22" s="86" t="n"/>
       <c r="E22" s="17" t="inlineStr">
         <is>
           <t>PAQ-001</t>
         </is>
       </c>
-      <c r="F22" s="85" t="n"/>
+      <c r="F22" s="86" t="n"/>
       <c r="G22" s="18" t="inlineStr">
         <is>
           <t>0 - 600</t>
         </is>
       </c>
-      <c r="H22" s="18" t="inlineStr">
-        <is>
-          <t>devolução</t>
-        </is>
-      </c>
-      <c r="I22" s="17" t="inlineStr">
-        <is>
-          <t>20/01/2025</t>
-        </is>
-      </c>
+      <c r="H22" s="61" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="I22" s="17" t="n"/>
       <c r="J22" s="17" t="n"/>
-      <c r="K22" s="85" t="n"/>
-    </row>
-    <row r="23" ht="57.75" customHeight="1" s="6">
-      <c r="A23" s="17" t="inlineStr">
-        <is>
-          <t>20/01/2025</t>
-        </is>
-      </c>
-      <c r="B23" s="17" t="inlineStr">
-        <is>
-          <t>Paquímetro analógico</t>
-        </is>
-      </c>
-      <c r="C23" s="84" t="n"/>
-      <c r="D23" s="85" t="n"/>
-      <c r="E23" s="17" t="inlineStr">
-        <is>
-          <t>PAQ-002</t>
-        </is>
-      </c>
-      <c r="F23" s="85" t="n"/>
-      <c r="G23" s="18" t="inlineStr">
-        <is>
-          <t>0 - 120</t>
-        </is>
-      </c>
-      <c r="H23" s="18" t="inlineStr">
-        <is>
-          <t>devolução</t>
-        </is>
-      </c>
-      <c r="I23" s="17" t="inlineStr">
-        <is>
-          <t>20/01/2025</t>
-        </is>
-      </c>
-      <c r="J23" s="17" t="n"/>
-      <c r="K23" s="85" t="n"/>
-    </row>
-    <row r="24" ht="57.75" customHeight="1" s="6">
-      <c r="A24" s="17" t="inlineStr">
-        <is>
-          <t>21/01/2025</t>
-        </is>
-      </c>
-      <c r="B24" s="17" t="inlineStr">
-        <is>
-          <t>Paquímetro analógico</t>
-        </is>
-      </c>
-      <c r="C24" s="84" t="n"/>
-      <c r="D24" s="85" t="n"/>
-      <c r="E24" s="17" t="inlineStr">
-        <is>
-          <t>PAQ-003</t>
-        </is>
-      </c>
-      <c r="F24" s="85" t="n"/>
-      <c r="G24" s="18" t="inlineStr">
-        <is>
-          <t>0 - 700</t>
-        </is>
-      </c>
-      <c r="H24" s="18" t="inlineStr">
-        <is>
-          <t>devolução</t>
-        </is>
-      </c>
-      <c r="I24" s="17" t="inlineStr">
-        <is>
-          <t>21/01/2025</t>
-        </is>
-      </c>
-      <c r="J24" s="17" t="n"/>
-      <c r="K24" s="85" t="n"/>
-    </row>
-    <row r="25" ht="57.75" customHeight="1" s="6">
-      <c r="A25" s="17" t="inlineStr">
-        <is>
-          <t>22/01/2025</t>
-        </is>
-      </c>
-      <c r="B25" s="17" t="inlineStr">
-        <is>
-          <t>Paquímetro analógico</t>
-        </is>
-      </c>
-      <c r="C25" s="84" t="n"/>
-      <c r="D25" s="85" t="n"/>
-      <c r="E25" s="17" t="inlineStr">
-        <is>
-          <t>PAQ-004</t>
-        </is>
-      </c>
-      <c r="F25" s="85" t="n"/>
-      <c r="G25" s="18" t="inlineStr">
-        <is>
-          <t>0 - 750</t>
-        </is>
-      </c>
-      <c r="H25" s="18" t="inlineStr">
-        <is>
-          <t>devolução</t>
-        </is>
-      </c>
-      <c r="I25" s="17" t="inlineStr">
-        <is>
-          <t>22/01/2025</t>
-        </is>
-      </c>
-      <c r="J25" s="17" t="n"/>
-      <c r="K25" s="85" t="n"/>
+      <c r="K22" s="86" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="36">
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E24:F24"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="J19:K19"/>
-    <mergeCell ref="E23:F23"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="K1:K4"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J24:K24"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B24:D24"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="C3:G4"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="J25:K25"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B25:D25"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="A8:K10"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E25:F25"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:G2"/>
@@ -1720,7 +1583,6 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="H7:K7"/>
-    <mergeCell ref="J23:K23"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="J17:K17"/>
   </mergeCells>

--- a/media/ficha/Termo de Responsabilidade Equipamentos de Medição_Atualizado-Luan Araújo.xlsx
+++ b/media/ficha/Termo de Responsabilidade Equipamentos de Medição_Atualizado-Luan Araújo.xlsx
@@ -774,106 +774,6 @@
       </spPr>
     </pic>
     <clientData fLocksWithSheet="0"/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>17</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1619250" cy="762000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>19</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1619250" cy="762000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>21</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1619250" cy="762000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>3</col>
-      <colOff>0</colOff>
-      <row>11</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="952500" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
   </oneCellAnchor>
 </wsDr>
 </file>
@@ -1375,213 +1275,79 @@
       <c r="K17" s="88" t="n"/>
     </row>
     <row r="18" ht="57.75" customHeight="1" s="6">
-      <c r="A18" s="17" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B18" s="17" t="inlineStr">
-        <is>
-          <t>Paquímetro analógico</t>
-        </is>
-      </c>
+      <c r="A18" s="17" t="n"/>
+      <c r="B18" s="17" t="n"/>
       <c r="C18" s="85" t="n"/>
       <c r="D18" s="86" t="n"/>
-      <c r="E18" s="17" t="inlineStr">
-        <is>
-          <t>PAQ-001</t>
-        </is>
-      </c>
+      <c r="E18" s="17" t="n"/>
       <c r="F18" s="86" t="n"/>
-      <c r="G18" s="18" t="inlineStr">
-        <is>
-          <t>0 - 600</t>
-        </is>
-      </c>
-      <c r="H18" s="61" t="inlineStr">
-        <is>
-          <t>Entrega</t>
-        </is>
-      </c>
+      <c r="G18" s="18" t="n"/>
+      <c r="H18" s="61" t="n"/>
       <c r="I18" s="17" t="n"/>
       <c r="J18" s="17" t="n"/>
       <c r="K18" s="86" t="n"/>
     </row>
-    <row r="19" ht="57.75" customHeight="1" s="6">
-      <c r="A19" s="17" t="inlineStr">
-        <is>
-          <t>06/01/2025</t>
-        </is>
-      </c>
-      <c r="B19" s="17" t="inlineStr">
-        <is>
-          <t>Paquímetro analógico</t>
-        </is>
-      </c>
-      <c r="C19" s="85" t="n"/>
-      <c r="D19" s="86" t="n"/>
-      <c r="E19" s="17" t="inlineStr">
-        <is>
-          <t>PAQ-001</t>
-        </is>
-      </c>
-      <c r="F19" s="86" t="n"/>
-      <c r="G19" s="18" t="inlineStr">
-        <is>
-          <t>0 - 600</t>
-        </is>
-      </c>
-      <c r="H19" s="61" t="inlineStr">
-        <is>
-          <t>substituição</t>
-        </is>
-      </c>
-      <c r="I19" s="17" t="inlineStr">
-        <is>
-          <t>06/01/2025</t>
-        </is>
-      </c>
-      <c r="J19" s="17" t="n"/>
-      <c r="K19" s="86" t="n"/>
-    </row>
-    <row r="20" ht="57.75" customHeight="1" s="6">
-      <c r="A20" s="17" t="inlineStr">
-        <is>
-          <t>06/01/2025</t>
-        </is>
-      </c>
-      <c r="B20" s="17" t="inlineStr">
-        <is>
-          <t>Paquímetro analógico</t>
-        </is>
-      </c>
-      <c r="C20" s="85" t="n"/>
-      <c r="D20" s="86" t="n"/>
-      <c r="E20" s="17" t="inlineStr">
-        <is>
-          <t>PAQ-002</t>
-        </is>
-      </c>
-      <c r="F20" s="86" t="n"/>
-      <c r="G20" s="18" t="inlineStr">
-        <is>
-          <t>0 - 120</t>
-        </is>
-      </c>
-      <c r="H20" s="61" t="inlineStr">
-        <is>
-          <t>Entrega - Temporária</t>
-        </is>
-      </c>
-      <c r="I20" s="17" t="n"/>
-      <c r="J20" s="17" t="n"/>
-      <c r="K20" s="86" t="n"/>
-    </row>
-    <row r="21" ht="57.75" customHeight="1" s="6">
-      <c r="A21" s="17" t="inlineStr">
-        <is>
-          <t>10/01/2025</t>
-        </is>
-      </c>
-      <c r="B21" s="17" t="inlineStr">
-        <is>
-          <t>Paquímetro analógico</t>
-        </is>
-      </c>
-      <c r="C21" s="85" t="n"/>
-      <c r="D21" s="86" t="n"/>
-      <c r="E21" s="17" t="inlineStr">
-        <is>
-          <t>PAQ-002</t>
-        </is>
-      </c>
-      <c r="F21" s="86" t="n"/>
-      <c r="G21" s="18" t="inlineStr">
-        <is>
-          <t>0 - 120</t>
-        </is>
-      </c>
-      <c r="H21" s="61" t="inlineStr">
-        <is>
-          <t>devolução</t>
-        </is>
-      </c>
-      <c r="I21" s="17" t="inlineStr">
-        <is>
-          <t>10/01/2025</t>
-        </is>
-      </c>
-      <c r="J21" s="17" t="n"/>
-      <c r="K21" s="86" t="n"/>
-    </row>
-    <row r="22" ht="57.75" customHeight="1" s="6">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t>16/01/2025</t>
-        </is>
-      </c>
-      <c r="B22" s="17" t="inlineStr">
-        <is>
-          <t>Paquímetro analógico</t>
-        </is>
-      </c>
-      <c r="C22" s="85" t="n"/>
-      <c r="D22" s="86" t="n"/>
-      <c r="E22" s="17" t="inlineStr">
-        <is>
-          <t>PAQ-001</t>
-        </is>
-      </c>
-      <c r="F22" s="86" t="n"/>
-      <c r="G22" s="18" t="inlineStr">
-        <is>
-          <t>0 - 600</t>
-        </is>
-      </c>
-      <c r="H22" s="61" t="inlineStr">
-        <is>
-          <t>Entrega</t>
-        </is>
-      </c>
-      <c r="I22" s="17" t="n"/>
-      <c r="J22" s="17" t="n"/>
-      <c r="K22" s="86" t="n"/>
-    </row>
+    <row r="19" ht="12.75" customHeight="1" s="6">
+      <c r="A19" s="7" t="n"/>
+      <c r="B19" s="7" t="n"/>
+      <c r="C19" s="7" t="n"/>
+      <c r="E19" s="7" t="n"/>
+      <c r="F19" s="7" t="n"/>
+      <c r="G19" s="7" t="n"/>
+      <c r="H19" s="7" t="n"/>
+      <c r="I19" s="7" t="n"/>
+      <c r="J19" s="7" t="n"/>
+      <c r="K19" s="7" t="n"/>
+    </row>
+    <row r="20" ht="12.75" customHeight="1" s="6">
+      <c r="A20" s="7" t="n"/>
+      <c r="B20" s="7" t="n"/>
+      <c r="C20" s="7" t="n"/>
+      <c r="E20" s="7" t="n"/>
+      <c r="F20" s="7" t="n"/>
+      <c r="G20" s="7" t="n"/>
+      <c r="H20" s="7" t="n"/>
+      <c r="I20" s="7" t="n"/>
+      <c r="J20" s="7" t="n"/>
+      <c r="K20" s="7" t="n"/>
+    </row>
+    <row r="21" ht="12.75" customHeight="1" s="6">
+      <c r="A21" s="7" t="n"/>
+      <c r="B21" s="7" t="n"/>
+      <c r="C21" s="7" t="n"/>
+      <c r="D21" s="7" t="n"/>
+      <c r="E21" s="7" t="n"/>
+      <c r="F21" s="7" t="n"/>
+      <c r="G21" s="7" t="n"/>
+      <c r="H21" s="7" t="n"/>
+      <c r="I21" s="7" t="n"/>
+      <c r="J21" s="7" t="n"/>
+      <c r="K21" s="7" t="n"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" s="6"/>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="24">
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="J19:K19"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="K1:K4"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="C3:G4"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J20:K20"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J22:K22"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J21:K21"/>
     <mergeCell ref="A8:K10"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B22:D22"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:G2"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B21:D21"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="J17:K17"/>

--- a/media/ficha/Termo de Responsabilidade Equipamentos de Medição_Atualizado-Luan Araújo.xlsx
+++ b/media/ficha/Termo de Responsabilidade Equipamentos de Medição_Atualizado-Luan Araújo.xlsx
@@ -774,6 +774,106 @@
       </spPr>
     </pic>
     <clientData fLocksWithSheet="0"/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1619250" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1619250" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1619250" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
   </oneCellAnchor>
 </wsDr>
 </file>
@@ -1275,79 +1375,213 @@
       <c r="K17" s="88" t="n"/>
     </row>
     <row r="18" ht="57.75" customHeight="1" s="6">
-      <c r="A18" s="17" t="n"/>
-      <c r="B18" s="17" t="n"/>
+      <c r="A18" s="17" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="B18" s="17" t="inlineStr">
+        <is>
+          <t>Paquímetro analógico</t>
+        </is>
+      </c>
       <c r="C18" s="85" t="n"/>
       <c r="D18" s="86" t="n"/>
-      <c r="E18" s="17" t="n"/>
+      <c r="E18" s="17" t="inlineStr">
+        <is>
+          <t>PAQ-001</t>
+        </is>
+      </c>
       <c r="F18" s="86" t="n"/>
-      <c r="G18" s="18" t="n"/>
-      <c r="H18" s="61" t="n"/>
-      <c r="I18" s="17" t="n"/>
+      <c r="G18" s="18" t="inlineStr">
+        <is>
+          <t>0 - 600</t>
+        </is>
+      </c>
+      <c r="H18" s="61" t="inlineStr">
+        <is>
+          <t>devolução</t>
+        </is>
+      </c>
+      <c r="I18" s="17" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
       <c r="J18" s="17" t="n"/>
       <c r="K18" s="86" t="n"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1" s="6">
-      <c r="A19" s="7" t="n"/>
-      <c r="B19" s="7" t="n"/>
-      <c r="C19" s="7" t="n"/>
-      <c r="E19" s="7" t="n"/>
-      <c r="F19" s="7" t="n"/>
-      <c r="G19" s="7" t="n"/>
-      <c r="H19" s="7" t="n"/>
-      <c r="I19" s="7" t="n"/>
-      <c r="J19" s="7" t="n"/>
-      <c r="K19" s="7" t="n"/>
-    </row>
-    <row r="20" ht="12.75" customHeight="1" s="6">
-      <c r="A20" s="7" t="n"/>
-      <c r="B20" s="7" t="n"/>
-      <c r="C20" s="7" t="n"/>
-      <c r="E20" s="7" t="n"/>
-      <c r="F20" s="7" t="n"/>
-      <c r="G20" s="7" t="n"/>
-      <c r="H20" s="7" t="n"/>
-      <c r="I20" s="7" t="n"/>
-      <c r="J20" s="7" t="n"/>
-      <c r="K20" s="7" t="n"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1" s="6">
-      <c r="A21" s="7" t="n"/>
-      <c r="B21" s="7" t="n"/>
-      <c r="C21" s="7" t="n"/>
-      <c r="D21" s="7" t="n"/>
-      <c r="E21" s="7" t="n"/>
-      <c r="F21" s="7" t="n"/>
-      <c r="G21" s="7" t="n"/>
-      <c r="H21" s="7" t="n"/>
-      <c r="I21" s="7" t="n"/>
-      <c r="J21" s="7" t="n"/>
-      <c r="K21" s="7" t="n"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1" s="6"/>
+    <row r="19" ht="57.75" customHeight="1" s="6">
+      <c r="A19" s="17" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="B19" s="17" t="inlineStr">
+        <is>
+          <t>Paquímetro analógico</t>
+        </is>
+      </c>
+      <c r="C19" s="85" t="n"/>
+      <c r="D19" s="86" t="n"/>
+      <c r="E19" s="17" t="inlineStr">
+        <is>
+          <t>PAQ-001</t>
+        </is>
+      </c>
+      <c r="F19" s="86" t="n"/>
+      <c r="G19" s="18" t="inlineStr">
+        <is>
+          <t>0 - 600</t>
+        </is>
+      </c>
+      <c r="H19" s="61" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="I19" s="17" t="n"/>
+      <c r="J19" s="17" t="n"/>
+      <c r="K19" s="86" t="n"/>
+    </row>
+    <row r="20" ht="57.75" customHeight="1" s="6">
+      <c r="A20" s="17" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="B20" s="17" t="inlineStr">
+        <is>
+          <t>Paquímetro analógico</t>
+        </is>
+      </c>
+      <c r="C20" s="85" t="n"/>
+      <c r="D20" s="86" t="n"/>
+      <c r="E20" s="17" t="inlineStr">
+        <is>
+          <t>PAQ-004</t>
+        </is>
+      </c>
+      <c r="F20" s="86" t="n"/>
+      <c r="G20" s="18" t="inlineStr">
+        <is>
+          <t>0 - 750</t>
+        </is>
+      </c>
+      <c r="H20" s="61" t="inlineStr">
+        <is>
+          <t>entrega</t>
+        </is>
+      </c>
+      <c r="I20" s="17" t="n"/>
+      <c r="J20" s="17" t="n"/>
+      <c r="K20" s="86" t="n"/>
+    </row>
+    <row r="21" ht="57.75" customHeight="1" s="6">
+      <c r="A21" s="17" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="B21" s="17" t="inlineStr">
+        <is>
+          <t>Paquímetro analógico</t>
+        </is>
+      </c>
+      <c r="C21" s="85" t="n"/>
+      <c r="D21" s="86" t="n"/>
+      <c r="E21" s="17" t="inlineStr">
+        <is>
+          <t>PAQ-003</t>
+        </is>
+      </c>
+      <c r="F21" s="86" t="n"/>
+      <c r="G21" s="18" t="inlineStr">
+        <is>
+          <t>0 - 700, 0 - 750</t>
+        </is>
+      </c>
+      <c r="H21" s="61" t="inlineStr">
+        <is>
+          <t>entrega</t>
+        </is>
+      </c>
+      <c r="I21" s="17" t="n"/>
+      <c r="J21" s="17" t="n"/>
+      <c r="K21" s="86" t="n"/>
+    </row>
+    <row r="22" ht="57.75" customHeight="1" s="6">
+      <c r="A22" s="17" t="inlineStr">
+        <is>
+          <t>04/02/2025</t>
+        </is>
+      </c>
+      <c r="B22" s="17" t="inlineStr">
+        <is>
+          <t>Paquímetro analógico</t>
+        </is>
+      </c>
+      <c r="C22" s="85" t="n"/>
+      <c r="D22" s="86" t="n"/>
+      <c r="E22" s="17" t="inlineStr">
+        <is>
+          <t>PAQ-004</t>
+        </is>
+      </c>
+      <c r="F22" s="86" t="n"/>
+      <c r="G22" s="18" t="inlineStr">
+        <is>
+          <t>0 - 750</t>
+        </is>
+      </c>
+      <c r="H22" s="61" t="inlineStr">
+        <is>
+          <t>devolução</t>
+        </is>
+      </c>
+      <c r="I22" s="17" t="inlineStr">
+        <is>
+          <t>04/02/2025</t>
+        </is>
+      </c>
+      <c r="J22" s="17" t="n"/>
+      <c r="K22" s="86" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="36">
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="J19:K19"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="K1:K4"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="C3:G4"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J20:K20"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J22:K22"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J21:K21"/>
     <mergeCell ref="A8:K10"/>
     <mergeCell ref="B6:F6"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:G2"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="J17:K17"/>

--- a/media/ficha/Termo de Responsabilidade Equipamentos de Medição_Atualizado-Luan Araújo.xlsx
+++ b/media/ficha/Termo de Responsabilidade Equipamentos de Medição_Atualizado-Luan Araújo.xlsx
@@ -774,106 +774,6 @@
       </spPr>
     </pic>
     <clientData fLocksWithSheet="0"/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>18</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1619250" cy="762000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>19</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1619250" cy="762000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>20</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1619250" cy="762000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>3</col>
-      <colOff>0</colOff>
-      <row>11</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="952500" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
   </oneCellAnchor>
 </wsDr>
 </file>
@@ -1375,213 +1275,79 @@
       <c r="K17" s="88" t="n"/>
     </row>
     <row r="18" ht="57.75" customHeight="1" s="6">
-      <c r="A18" s="17" t="inlineStr">
-        <is>
-          <t>03/02/2025</t>
-        </is>
-      </c>
-      <c r="B18" s="17" t="inlineStr">
-        <is>
-          <t>Paquímetro analógico</t>
-        </is>
-      </c>
+      <c r="A18" s="17" t="n"/>
+      <c r="B18" s="17" t="n"/>
       <c r="C18" s="85" t="n"/>
       <c r="D18" s="86" t="n"/>
-      <c r="E18" s="17" t="inlineStr">
-        <is>
-          <t>PAQ-001</t>
-        </is>
-      </c>
+      <c r="E18" s="17" t="n"/>
       <c r="F18" s="86" t="n"/>
-      <c r="G18" s="18" t="inlineStr">
-        <is>
-          <t>0 - 600</t>
-        </is>
-      </c>
-      <c r="H18" s="61" t="inlineStr">
-        <is>
-          <t>devolução</t>
-        </is>
-      </c>
-      <c r="I18" s="17" t="inlineStr">
-        <is>
-          <t>03/02/2025</t>
-        </is>
-      </c>
+      <c r="G18" s="18" t="n"/>
+      <c r="H18" s="61" t="n"/>
+      <c r="I18" s="17" t="n"/>
       <c r="J18" s="17" t="n"/>
       <c r="K18" s="86" t="n"/>
     </row>
-    <row r="19" ht="57.75" customHeight="1" s="6">
-      <c r="A19" s="17" t="inlineStr">
-        <is>
-          <t>03/02/2025</t>
-        </is>
-      </c>
-      <c r="B19" s="17" t="inlineStr">
-        <is>
-          <t>Paquímetro analógico</t>
-        </is>
-      </c>
-      <c r="C19" s="85" t="n"/>
-      <c r="D19" s="86" t="n"/>
-      <c r="E19" s="17" t="inlineStr">
-        <is>
-          <t>PAQ-001</t>
-        </is>
-      </c>
-      <c r="F19" s="86" t="n"/>
-      <c r="G19" s="18" t="inlineStr">
-        <is>
-          <t>0 - 600</t>
-        </is>
-      </c>
-      <c r="H19" s="61" t="inlineStr">
-        <is>
-          <t>Entrega</t>
-        </is>
-      </c>
-      <c r="I19" s="17" t="n"/>
-      <c r="J19" s="17" t="n"/>
-      <c r="K19" s="86" t="n"/>
-    </row>
-    <row r="20" ht="57.75" customHeight="1" s="6">
-      <c r="A20" s="17" t="inlineStr">
-        <is>
-          <t>03/02/2025</t>
-        </is>
-      </c>
-      <c r="B20" s="17" t="inlineStr">
-        <is>
-          <t>Paquímetro analógico</t>
-        </is>
-      </c>
-      <c r="C20" s="85" t="n"/>
-      <c r="D20" s="86" t="n"/>
-      <c r="E20" s="17" t="inlineStr">
-        <is>
-          <t>PAQ-004</t>
-        </is>
-      </c>
-      <c r="F20" s="86" t="n"/>
-      <c r="G20" s="18" t="inlineStr">
-        <is>
-          <t>0 - 750</t>
-        </is>
-      </c>
-      <c r="H20" s="61" t="inlineStr">
-        <is>
-          <t>entrega</t>
-        </is>
-      </c>
-      <c r="I20" s="17" t="n"/>
-      <c r="J20" s="17" t="n"/>
-      <c r="K20" s="86" t="n"/>
-    </row>
-    <row r="21" ht="57.75" customHeight="1" s="6">
-      <c r="A21" s="17" t="inlineStr">
-        <is>
-          <t>03/02/2025</t>
-        </is>
-      </c>
-      <c r="B21" s="17" t="inlineStr">
-        <is>
-          <t>Paquímetro analógico</t>
-        </is>
-      </c>
-      <c r="C21" s="85" t="n"/>
-      <c r="D21" s="86" t="n"/>
-      <c r="E21" s="17" t="inlineStr">
-        <is>
-          <t>PAQ-003</t>
-        </is>
-      </c>
-      <c r="F21" s="86" t="n"/>
-      <c r="G21" s="18" t="inlineStr">
-        <is>
-          <t>0 - 700, 0 - 750</t>
-        </is>
-      </c>
-      <c r="H21" s="61" t="inlineStr">
-        <is>
-          <t>entrega</t>
-        </is>
-      </c>
-      <c r="I21" s="17" t="n"/>
-      <c r="J21" s="17" t="n"/>
-      <c r="K21" s="86" t="n"/>
-    </row>
-    <row r="22" ht="57.75" customHeight="1" s="6">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t>04/02/2025</t>
-        </is>
-      </c>
-      <c r="B22" s="17" t="inlineStr">
-        <is>
-          <t>Paquímetro analógico</t>
-        </is>
-      </c>
-      <c r="C22" s="85" t="n"/>
-      <c r="D22" s="86" t="n"/>
-      <c r="E22" s="17" t="inlineStr">
-        <is>
-          <t>PAQ-004</t>
-        </is>
-      </c>
-      <c r="F22" s="86" t="n"/>
-      <c r="G22" s="18" t="inlineStr">
-        <is>
-          <t>0 - 750</t>
-        </is>
-      </c>
-      <c r="H22" s="61" t="inlineStr">
-        <is>
-          <t>devolução</t>
-        </is>
-      </c>
-      <c r="I22" s="17" t="inlineStr">
-        <is>
-          <t>04/02/2025</t>
-        </is>
-      </c>
-      <c r="J22" s="17" t="n"/>
-      <c r="K22" s="86" t="n"/>
-    </row>
+    <row r="19" ht="12.75" customHeight="1" s="6">
+      <c r="A19" s="7" t="n"/>
+      <c r="B19" s="7" t="n"/>
+      <c r="C19" s="7" t="n"/>
+      <c r="E19" s="7" t="n"/>
+      <c r="F19" s="7" t="n"/>
+      <c r="G19" s="7" t="n"/>
+      <c r="H19" s="7" t="n"/>
+      <c r="I19" s="7" t="n"/>
+      <c r="J19" s="7" t="n"/>
+      <c r="K19" s="7" t="n"/>
+    </row>
+    <row r="20" ht="12.75" customHeight="1" s="6">
+      <c r="A20" s="7" t="n"/>
+      <c r="B20" s="7" t="n"/>
+      <c r="C20" s="7" t="n"/>
+      <c r="E20" s="7" t="n"/>
+      <c r="F20" s="7" t="n"/>
+      <c r="G20" s="7" t="n"/>
+      <c r="H20" s="7" t="n"/>
+      <c r="I20" s="7" t="n"/>
+      <c r="J20" s="7" t="n"/>
+      <c r="K20" s="7" t="n"/>
+    </row>
+    <row r="21" ht="12.75" customHeight="1" s="6">
+      <c r="A21" s="7" t="n"/>
+      <c r="B21" s="7" t="n"/>
+      <c r="C21" s="7" t="n"/>
+      <c r="D21" s="7" t="n"/>
+      <c r="E21" s="7" t="n"/>
+      <c r="F21" s="7" t="n"/>
+      <c r="G21" s="7" t="n"/>
+      <c r="H21" s="7" t="n"/>
+      <c r="I21" s="7" t="n"/>
+      <c r="J21" s="7" t="n"/>
+      <c r="K21" s="7" t="n"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" s="6"/>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="24">
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="J19:K19"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="K1:K4"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="C3:G4"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J20:K20"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J22:K22"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J21:K21"/>
     <mergeCell ref="A8:K10"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B22:D22"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:G2"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B21:D21"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="J17:K17"/>

--- a/media/ficha/Termo de Responsabilidade Equipamentos de Medição_Atualizado-Luan Araújo.xlsx
+++ b/media/ficha/Termo de Responsabilidade Equipamentos de Medição_Atualizado-Luan Araújo.xlsx
@@ -774,6 +774,156 @@
       </spPr>
     </pic>
     <clientData fLocksWithSheet="0"/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1619250" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1619250" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1619250" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1619250" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1619250" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
   </oneCellAnchor>
 </wsDr>
 </file>
@@ -980,7 +1130,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
@@ -1275,80 +1425,286 @@
       <c r="K17" s="88" t="n"/>
     </row>
     <row r="18" ht="57.75" customHeight="1" s="6">
-      <c r="A18" s="17" t="n"/>
-      <c r="B18" s="17" t="n"/>
+      <c r="A18" s="17" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
+      <c r="B18" s="17" t="inlineStr">
+        <is>
+          <t>Paquímetro analógico</t>
+        </is>
+      </c>
       <c r="C18" s="85" t="n"/>
       <c r="D18" s="86" t="n"/>
-      <c r="E18" s="17" t="n"/>
+      <c r="E18" s="17" t="inlineStr">
+        <is>
+          <t>PAQ-004</t>
+        </is>
+      </c>
       <c r="F18" s="86" t="n"/>
-      <c r="G18" s="18" t="n"/>
-      <c r="H18" s="61" t="n"/>
+      <c r="G18" s="18" t="inlineStr">
+        <is>
+          <t>0 - 750</t>
+        </is>
+      </c>
+      <c r="H18" s="61" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
       <c r="I18" s="17" t="n"/>
       <c r="J18" s="17" t="n"/>
       <c r="K18" s="86" t="n"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1" s="6">
-      <c r="A19" s="7" t="n"/>
-      <c r="B19" s="7" t="n"/>
-      <c r="C19" s="7" t="n"/>
-      <c r="E19" s="7" t="n"/>
-      <c r="F19" s="7" t="n"/>
-      <c r="G19" s="7" t="n"/>
-      <c r="H19" s="7" t="n"/>
-      <c r="I19" s="7" t="n"/>
-      <c r="J19" s="7" t="n"/>
-      <c r="K19" s="7" t="n"/>
-    </row>
-    <row r="20" ht="12.75" customHeight="1" s="6">
-      <c r="A20" s="7" t="n"/>
-      <c r="B20" s="7" t="n"/>
-      <c r="C20" s="7" t="n"/>
-      <c r="E20" s="7" t="n"/>
-      <c r="F20" s="7" t="n"/>
-      <c r="G20" s="7" t="n"/>
-      <c r="H20" s="7" t="n"/>
-      <c r="I20" s="7" t="n"/>
-      <c r="J20" s="7" t="n"/>
-      <c r="K20" s="7" t="n"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1" s="6">
-      <c r="A21" s="7" t="n"/>
-      <c r="B21" s="7" t="n"/>
-      <c r="C21" s="7" t="n"/>
-      <c r="D21" s="7" t="n"/>
-      <c r="E21" s="7" t="n"/>
-      <c r="F21" s="7" t="n"/>
-      <c r="G21" s="7" t="n"/>
-      <c r="H21" s="7" t="n"/>
-      <c r="I21" s="7" t="n"/>
-      <c r="J21" s="7" t="n"/>
-      <c r="K21" s="7" t="n"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1" s="6"/>
+    <row r="19" ht="57.75" customHeight="1" s="6">
+      <c r="A19" s="17" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="B19" s="17" t="inlineStr">
+        <is>
+          <t>Paquímetro analógico</t>
+        </is>
+      </c>
+      <c r="C19" s="85" t="n"/>
+      <c r="D19" s="86" t="n"/>
+      <c r="E19" s="17" t="inlineStr">
+        <is>
+          <t>PAQ-004</t>
+        </is>
+      </c>
+      <c r="F19" s="86" t="n"/>
+      <c r="G19" s="18" t="inlineStr">
+        <is>
+          <t>0 - 750</t>
+        </is>
+      </c>
+      <c r="H19" s="61" t="inlineStr">
+        <is>
+          <t>devolução - None</t>
+        </is>
+      </c>
+      <c r="I19" s="17" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="J19" s="17" t="n"/>
+      <c r="K19" s="86" t="n"/>
+    </row>
+    <row r="20" ht="57.75" customHeight="1" s="6">
+      <c r="A20" s="17" t="inlineStr">
+        <is>
+          <t>19/02/2025</t>
+        </is>
+      </c>
+      <c r="B20" s="17" t="inlineStr">
+        <is>
+          <t>Paquímetro analógico</t>
+        </is>
+      </c>
+      <c r="C20" s="85" t="n"/>
+      <c r="D20" s="86" t="n"/>
+      <c r="E20" s="17" t="inlineStr">
+        <is>
+          <t>PAQ-001</t>
+        </is>
+      </c>
+      <c r="F20" s="86" t="n"/>
+      <c r="G20" s="18" t="inlineStr">
+        <is>
+          <t>0 - 600</t>
+        </is>
+      </c>
+      <c r="H20" s="61" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="I20" s="17" t="n"/>
+      <c r="J20" s="17" t="n"/>
+      <c r="K20" s="86" t="n"/>
+    </row>
+    <row r="21" ht="57.75" customHeight="1" s="6">
+      <c r="A21" s="17" t="inlineStr">
+        <is>
+          <t>19/02/2025</t>
+        </is>
+      </c>
+      <c r="B21" s="17" t="inlineStr">
+        <is>
+          <t>Manômetro</t>
+        </is>
+      </c>
+      <c r="C21" s="85" t="n"/>
+      <c r="D21" s="86" t="n"/>
+      <c r="E21" s="17" t="inlineStr">
+        <is>
+          <t>MAN-CQ-001</t>
+        </is>
+      </c>
+      <c r="F21" s="86" t="n"/>
+      <c r="G21" s="18" t="inlineStr">
+        <is>
+          <t>0 - 700</t>
+        </is>
+      </c>
+      <c r="H21" s="61" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="I21" s="17" t="n"/>
+      <c r="J21" s="17" t="n"/>
+      <c r="K21" s="86" t="n"/>
+    </row>
+    <row r="22" ht="57.75" customHeight="1" s="6">
+      <c r="A22" s="17" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+      <c r="B22" s="17" t="inlineStr">
+        <is>
+          <t>Paquímetro analógico</t>
+        </is>
+      </c>
+      <c r="C22" s="85" t="n"/>
+      <c r="D22" s="86" t="n"/>
+      <c r="E22" s="17" t="inlineStr">
+        <is>
+          <t>PAQ-001</t>
+        </is>
+      </c>
+      <c r="F22" s="86" t="n"/>
+      <c r="G22" s="18" t="inlineStr">
+        <is>
+          <t>0 - 600</t>
+        </is>
+      </c>
+      <c r="H22" s="61" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="I22" s="17" t="n"/>
+      <c r="J22" s="17" t="n"/>
+      <c r="K22" s="86" t="n"/>
+    </row>
+    <row r="23" ht="57.75" customHeight="1" s="6">
+      <c r="A23" s="17" t="inlineStr">
+        <is>
+          <t>03/03/2025</t>
+        </is>
+      </c>
+      <c r="B23" s="17" t="inlineStr">
+        <is>
+          <t>Paquímetro analógico</t>
+        </is>
+      </c>
+      <c r="C23" s="85" t="n"/>
+      <c r="D23" s="86" t="n"/>
+      <c r="E23" s="17" t="inlineStr">
+        <is>
+          <t>PAQ-001</t>
+        </is>
+      </c>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="18" t="inlineStr">
+        <is>
+          <t>0 - 600</t>
+        </is>
+      </c>
+      <c r="H23" s="61" t="inlineStr">
+        <is>
+          <t>substituição - calibração</t>
+        </is>
+      </c>
+      <c r="I23" s="17" t="inlineStr">
+        <is>
+          <t>03/03/2025</t>
+        </is>
+      </c>
+      <c r="J23" s="17" t="n"/>
+      <c r="K23" s="86" t="n"/>
+    </row>
+    <row r="24" ht="57.75" customHeight="1" s="6">
+      <c r="A24" s="17" t="inlineStr">
+        <is>
+          <t>03/03/2025</t>
+        </is>
+      </c>
+      <c r="B24" s="17" t="inlineStr">
+        <is>
+          <t>Paquímetro analógico</t>
+        </is>
+      </c>
+      <c r="C24" s="85" t="n"/>
+      <c r="D24" s="86" t="n"/>
+      <c r="E24" s="17" t="inlineStr">
+        <is>
+          <t>PAQ-002</t>
+        </is>
+      </c>
+      <c r="F24" s="86" t="n"/>
+      <c r="G24" s="18" t="inlineStr">
+        <is>
+          <t>0 - 120</t>
+        </is>
+      </c>
+      <c r="H24" s="61" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="I24" s="17" t="n"/>
+      <c r="J24" s="17" t="n"/>
+      <c r="K24" s="86" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="42">
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="E23:F23"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="K1:K4"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="C3:G4"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J20:K20"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J22:K22"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J21:K21"/>
     <mergeCell ref="A8:K10"/>
     <mergeCell ref="B6:F6"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:G2"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="H7:K7"/>
+    <mergeCell ref="J23:K23"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="J17:K17"/>
   </mergeCells>

--- a/media/ficha/Termo de Responsabilidade Equipamentos de Medição_Atualizado-Luan Araújo.xlsx
+++ b/media/ficha/Termo de Responsabilidade Equipamentos de Medição_Atualizado-Luan Araújo.xlsx
@@ -779,7 +779,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>17</row>
+      <row>25</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1619250" cy="762000"/>
@@ -804,7 +804,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>26</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1619250" cy="762000"/>
@@ -829,7 +829,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>20</row>
+      <row>27</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1619250" cy="762000"/>
@@ -854,7 +854,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>21</row>
+      <row>28</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1619250" cy="762000"/>
@@ -879,7 +879,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>23</row>
+      <row>29</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1619250" cy="762000"/>
@@ -902,6 +902,256 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1619250" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>31</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1619250" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId9"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>35</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1619250" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId10"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>36</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1619250" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId11"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>37</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1619250" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId12"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1619250" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId13"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>40</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1619250" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId14"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>41</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1619250" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId15"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>42</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1619250" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId16"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1619250" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId17"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
       <col>3</col>
       <colOff>0</colOff>
       <row>11</row>
@@ -910,11 +1160,11 @@
     <ext cx="952500" cy="476250"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId18"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1130,7 +1380,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
@@ -1427,58 +1677,62 @@
     <row r="18" ht="57.75" customHeight="1" s="6">
       <c r="A18" s="17" t="inlineStr">
         <is>
-          <t>07/02/2025</t>
+          <t>04/02/2025</t>
         </is>
       </c>
       <c r="B18" s="17" t="inlineStr">
         <is>
-          <t>Paquímetro analógico</t>
+          <t>Gôniometro</t>
         </is>
       </c>
       <c r="C18" s="85" t="n"/>
       <c r="D18" s="86" t="n"/>
       <c r="E18" s="17" t="inlineStr">
         <is>
-          <t>PAQ-004</t>
+          <t>GON-CQ-004</t>
         </is>
       </c>
       <c r="F18" s="86" t="n"/>
       <c r="G18" s="18" t="inlineStr">
         <is>
-          <t>0 - 750</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H18" s="61" t="inlineStr">
         <is>
-          <t>Entrega</t>
-        </is>
-      </c>
-      <c r="I18" s="17" t="n"/>
+          <t>devolução - None</t>
+        </is>
+      </c>
+      <c r="I18" s="17" t="inlineStr">
+        <is>
+          <t>04/02/2025</t>
+        </is>
+      </c>
       <c r="J18" s="17" t="n"/>
       <c r="K18" s="86" t="n"/>
     </row>
     <row r="19" ht="57.75" customHeight="1" s="6">
       <c r="A19" s="17" t="inlineStr">
         <is>
-          <t>10/02/2025</t>
+          <t>12/02/2025</t>
         </is>
       </c>
       <c r="B19" s="17" t="inlineStr">
         <is>
-          <t>Paquímetro analógico</t>
+          <t>Manômetro</t>
         </is>
       </c>
       <c r="C19" s="85" t="n"/>
       <c r="D19" s="86" t="n"/>
       <c r="E19" s="17" t="inlineStr">
         <is>
-          <t>PAQ-004</t>
+          <t>MAN-PI-005</t>
         </is>
       </c>
       <c r="F19" s="86" t="n"/>
       <c r="G19" s="18" t="inlineStr">
         <is>
-          <t>0 - 750</t>
+          <t>0 - 350</t>
         </is>
       </c>
       <c r="H19" s="61" t="inlineStr">
@@ -1488,7 +1742,7 @@
       </c>
       <c r="I19" s="17" t="inlineStr">
         <is>
-          <t>10/02/2025</t>
+          <t>12/02/2025</t>
         </is>
       </c>
       <c r="J19" s="17" t="n"/>
@@ -1497,134 +1751,146 @@
     <row r="20" ht="57.75" customHeight="1" s="6">
       <c r="A20" s="17" t="inlineStr">
         <is>
-          <t>19/02/2025</t>
+          <t>12/02/2025</t>
         </is>
       </c>
       <c r="B20" s="17" t="inlineStr">
         <is>
-          <t>Paquímetro analógico</t>
+          <t>Manômetro</t>
         </is>
       </c>
       <c r="C20" s="85" t="n"/>
       <c r="D20" s="86" t="n"/>
       <c r="E20" s="17" t="inlineStr">
         <is>
-          <t>PAQ-001</t>
+          <t>MAN-PI-004</t>
         </is>
       </c>
       <c r="F20" s="86" t="n"/>
       <c r="G20" s="18" t="inlineStr">
         <is>
-          <t>0 - 600</t>
+          <t>0 - 350</t>
         </is>
       </c>
       <c r="H20" s="61" t="inlineStr">
         <is>
-          <t>Entrega</t>
-        </is>
-      </c>
-      <c r="I20" s="17" t="n"/>
+          <t>devolução - None</t>
+        </is>
+      </c>
+      <c r="I20" s="17" t="inlineStr">
+        <is>
+          <t>12/02/2025</t>
+        </is>
+      </c>
       <c r="J20" s="17" t="n"/>
       <c r="K20" s="86" t="n"/>
     </row>
     <row r="21" ht="57.75" customHeight="1" s="6">
       <c r="A21" s="17" t="inlineStr">
         <is>
-          <t>19/02/2025</t>
+          <t>12/02/2025</t>
         </is>
       </c>
       <c r="B21" s="17" t="inlineStr">
         <is>
-          <t>Manômetro</t>
+          <t>Gôniometro</t>
         </is>
       </c>
       <c r="C21" s="85" t="n"/>
       <c r="D21" s="86" t="n"/>
       <c r="E21" s="17" t="inlineStr">
         <is>
-          <t>MAN-CQ-001</t>
+          <t>GON-CQ-004</t>
         </is>
       </c>
       <c r="F21" s="86" t="n"/>
       <c r="G21" s="18" t="inlineStr">
         <is>
-          <t>0 - 700</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H21" s="61" t="inlineStr">
         <is>
-          <t>Entrega</t>
-        </is>
-      </c>
-      <c r="I21" s="17" t="n"/>
+          <t>devolução - None</t>
+        </is>
+      </c>
+      <c r="I21" s="17" t="inlineStr">
+        <is>
+          <t>12/02/2025</t>
+        </is>
+      </c>
       <c r="J21" s="17" t="n"/>
       <c r="K21" s="86" t="n"/>
     </row>
     <row r="22" ht="57.75" customHeight="1" s="6">
       <c r="A22" s="17" t="inlineStr">
         <is>
-          <t>01/03/2025</t>
+          <t>12/02/2025</t>
         </is>
       </c>
       <c r="B22" s="17" t="inlineStr">
         <is>
-          <t>Paquímetro analógico</t>
+          <t>Gôniometro</t>
         </is>
       </c>
       <c r="C22" s="85" t="n"/>
       <c r="D22" s="86" t="n"/>
       <c r="E22" s="17" t="inlineStr">
         <is>
-          <t>PAQ-001</t>
+          <t>GON-CQ-004</t>
         </is>
       </c>
       <c r="F22" s="86" t="n"/>
       <c r="G22" s="18" t="inlineStr">
         <is>
-          <t>0 - 600</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H22" s="61" t="inlineStr">
         <is>
-          <t>Entrega</t>
-        </is>
-      </c>
-      <c r="I22" s="17" t="n"/>
+          <t>devolução - None</t>
+        </is>
+      </c>
+      <c r="I22" s="17" t="inlineStr">
+        <is>
+          <t>12/02/2025</t>
+        </is>
+      </c>
       <c r="J22" s="17" t="n"/>
       <c r="K22" s="86" t="n"/>
     </row>
     <row r="23" ht="57.75" customHeight="1" s="6">
       <c r="A23" s="17" t="inlineStr">
         <is>
-          <t>03/03/2025</t>
+          <t>12/02/2025</t>
         </is>
       </c>
       <c r="B23" s="17" t="inlineStr">
         <is>
-          <t>Paquímetro analógico</t>
+          <t>Manômetro</t>
         </is>
       </c>
       <c r="C23" s="85" t="n"/>
       <c r="D23" s="86" t="n"/>
       <c r="E23" s="17" t="inlineStr">
         <is>
-          <t>PAQ-001</t>
+          <t>MAN-PI-004</t>
         </is>
       </c>
       <c r="F23" s="86" t="n"/>
       <c r="G23" s="18" t="inlineStr">
         <is>
-          <t>0 - 600</t>
+          <t>0 - 350</t>
         </is>
       </c>
       <c r="H23" s="61" t="inlineStr">
         <is>
-          <t>substituição - calibração</t>
+          <t>devolução - None</t>
         </is>
       </c>
       <c r="I23" s="17" t="inlineStr">
         <is>
-          <t>03/03/2025</t>
+          <t>12/02/2025</t>
         </is>
       </c>
       <c r="J23" s="17" t="n"/>
@@ -1633,80 +1899,904 @@
     <row r="24" ht="57.75" customHeight="1" s="6">
       <c r="A24" s="17" t="inlineStr">
         <is>
-          <t>03/03/2025</t>
+          <t>12/02/2025</t>
         </is>
       </c>
       <c r="B24" s="17" t="inlineStr">
         <is>
-          <t>Paquímetro analógico</t>
+          <t>Manômetro</t>
         </is>
       </c>
       <c r="C24" s="85" t="n"/>
       <c r="D24" s="86" t="n"/>
       <c r="E24" s="17" t="inlineStr">
         <is>
-          <t>PAQ-002</t>
+          <t>MAN-PI-004</t>
         </is>
       </c>
       <c r="F24" s="86" t="n"/>
       <c r="G24" s="18" t="inlineStr">
         <is>
-          <t>0 - 120</t>
+          <t>0 - 350</t>
         </is>
       </c>
       <c r="H24" s="61" t="inlineStr">
         <is>
-          <t>Entrega</t>
-        </is>
-      </c>
-      <c r="I24" s="17" t="n"/>
+          <t>devolução - None</t>
+        </is>
+      </c>
+      <c r="I24" s="17" t="inlineStr">
+        <is>
+          <t>12/02/2025</t>
+        </is>
+      </c>
       <c r="J24" s="17" t="n"/>
       <c r="K24" s="86" t="n"/>
     </row>
+    <row r="25" ht="57.75" customHeight="1" s="6">
+      <c r="A25" s="17" t="inlineStr">
+        <is>
+          <t>12/02/2025</t>
+        </is>
+      </c>
+      <c r="B25" s="17" t="inlineStr">
+        <is>
+          <t>Manômetro</t>
+        </is>
+      </c>
+      <c r="C25" s="85" t="n"/>
+      <c r="D25" s="86" t="n"/>
+      <c r="E25" s="17" t="inlineStr">
+        <is>
+          <t>MAN-PI-005</t>
+        </is>
+      </c>
+      <c r="F25" s="86" t="n"/>
+      <c r="G25" s="18" t="inlineStr">
+        <is>
+          <t>0 - 350</t>
+        </is>
+      </c>
+      <c r="H25" s="61" t="inlineStr">
+        <is>
+          <t>substituição - calibração</t>
+        </is>
+      </c>
+      <c r="I25" s="17" t="inlineStr">
+        <is>
+          <t>12/02/2025</t>
+        </is>
+      </c>
+      <c r="J25" s="17" t="n"/>
+      <c r="K25" s="86" t="n"/>
+    </row>
+    <row r="26" ht="57.75" customHeight="1" s="6">
+      <c r="A26" s="17" t="inlineStr">
+        <is>
+          <t>12/02/2025</t>
+        </is>
+      </c>
+      <c r="B26" s="17" t="inlineStr">
+        <is>
+          <t>Gôniometro</t>
+        </is>
+      </c>
+      <c r="C26" s="85" t="n"/>
+      <c r="D26" s="86" t="n"/>
+      <c r="E26" s="17" t="inlineStr">
+        <is>
+          <t>GON-CQ-004</t>
+        </is>
+      </c>
+      <c r="F26" s="86" t="n"/>
+      <c r="G26" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H26" s="61" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="I26" s="17" t="n"/>
+      <c r="J26" s="17" t="n"/>
+      <c r="K26" s="86" t="n"/>
+    </row>
+    <row r="27" ht="57.75" customHeight="1" s="6">
+      <c r="A27" s="17" t="inlineStr">
+        <is>
+          <t>12/02/2025</t>
+        </is>
+      </c>
+      <c r="B27" s="17" t="inlineStr">
+        <is>
+          <t>Manômetro</t>
+        </is>
+      </c>
+      <c r="C27" s="85" t="n"/>
+      <c r="D27" s="86" t="n"/>
+      <c r="E27" s="17" t="inlineStr">
+        <is>
+          <t>MAN-PI-005</t>
+        </is>
+      </c>
+      <c r="F27" s="86" t="n"/>
+      <c r="G27" s="18" t="inlineStr">
+        <is>
+          <t>0 - 350</t>
+        </is>
+      </c>
+      <c r="H27" s="61" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="I27" s="17" t="n"/>
+      <c r="J27" s="17" t="n"/>
+      <c r="K27" s="86" t="n"/>
+    </row>
+    <row r="28" ht="57.75" customHeight="1" s="6">
+      <c r="A28" s="17" t="inlineStr">
+        <is>
+          <t>12/02/2025</t>
+        </is>
+      </c>
+      <c r="B28" s="17" t="inlineStr">
+        <is>
+          <t>Manômetro</t>
+        </is>
+      </c>
+      <c r="C28" s="85" t="n"/>
+      <c r="D28" s="86" t="n"/>
+      <c r="E28" s="17" t="inlineStr">
+        <is>
+          <t>MAN-PI-004</t>
+        </is>
+      </c>
+      <c r="F28" s="86" t="n"/>
+      <c r="G28" s="18" t="inlineStr">
+        <is>
+          <t>0 - 350</t>
+        </is>
+      </c>
+      <c r="H28" s="61" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="I28" s="17" t="n"/>
+      <c r="J28" s="17" t="n"/>
+      <c r="K28" s="86" t="n"/>
+    </row>
+    <row r="29" ht="57.75" customHeight="1" s="6">
+      <c r="A29" s="17" t="inlineStr">
+        <is>
+          <t>12/02/2025</t>
+        </is>
+      </c>
+      <c r="B29" s="17" t="inlineStr">
+        <is>
+          <t>Gôniometro</t>
+        </is>
+      </c>
+      <c r="C29" s="85" t="n"/>
+      <c r="D29" s="86" t="n"/>
+      <c r="E29" s="17" t="inlineStr">
+        <is>
+          <t>GON-CQ-004</t>
+        </is>
+      </c>
+      <c r="F29" s="86" t="n"/>
+      <c r="G29" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H29" s="61" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="I29" s="17" t="n"/>
+      <c r="J29" s="17" t="n"/>
+      <c r="K29" s="86" t="n"/>
+    </row>
+    <row r="30" ht="57.75" customHeight="1" s="6">
+      <c r="A30" s="17" t="inlineStr">
+        <is>
+          <t>12/02/2025</t>
+        </is>
+      </c>
+      <c r="B30" s="17" t="inlineStr">
+        <is>
+          <t>Manômetro</t>
+        </is>
+      </c>
+      <c r="C30" s="85" t="n"/>
+      <c r="D30" s="86" t="n"/>
+      <c r="E30" s="17" t="inlineStr">
+        <is>
+          <t>MAN-PI-005</t>
+        </is>
+      </c>
+      <c r="F30" s="86" t="n"/>
+      <c r="G30" s="18" t="inlineStr">
+        <is>
+          <t>0 - 350</t>
+        </is>
+      </c>
+      <c r="H30" s="61" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="I30" s="17" t="n"/>
+      <c r="J30" s="17" t="n"/>
+      <c r="K30" s="86" t="n"/>
+    </row>
+    <row r="31" ht="57.75" customHeight="1" s="6">
+      <c r="A31" s="17" t="inlineStr">
+        <is>
+          <t>12/02/2025</t>
+        </is>
+      </c>
+      <c r="B31" s="17" t="inlineStr">
+        <is>
+          <t>Manômetro</t>
+        </is>
+      </c>
+      <c r="C31" s="85" t="n"/>
+      <c r="D31" s="86" t="n"/>
+      <c r="E31" s="17" t="inlineStr">
+        <is>
+          <t>MAN-PI-004</t>
+        </is>
+      </c>
+      <c r="F31" s="86" t="n"/>
+      <c r="G31" s="18" t="inlineStr">
+        <is>
+          <t>0 - 350</t>
+        </is>
+      </c>
+      <c r="H31" s="61" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="I31" s="17" t="n"/>
+      <c r="J31" s="17" t="n"/>
+      <c r="K31" s="86" t="n"/>
+    </row>
+    <row r="32" ht="57.75" customHeight="1" s="6">
+      <c r="A32" s="17" t="inlineStr">
+        <is>
+          <t>12/02/2025</t>
+        </is>
+      </c>
+      <c r="B32" s="17" t="inlineStr">
+        <is>
+          <t>Gôniometro</t>
+        </is>
+      </c>
+      <c r="C32" s="85" t="n"/>
+      <c r="D32" s="86" t="n"/>
+      <c r="E32" s="17" t="inlineStr">
+        <is>
+          <t>GON-CQ-004</t>
+        </is>
+      </c>
+      <c r="F32" s="86" t="n"/>
+      <c r="G32" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="61" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="I32" s="17" t="n"/>
+      <c r="J32" s="17" t="n"/>
+      <c r="K32" s="86" t="n"/>
+    </row>
+    <row r="33" ht="57.75" customHeight="1" s="6">
+      <c r="A33" s="17" t="inlineStr">
+        <is>
+          <t>13/02/2025</t>
+        </is>
+      </c>
+      <c r="B33" s="17" t="inlineStr">
+        <is>
+          <t>Gôniometro</t>
+        </is>
+      </c>
+      <c r="C33" s="85" t="n"/>
+      <c r="D33" s="86" t="n"/>
+      <c r="E33" s="17" t="inlineStr">
+        <is>
+          <t>GON-CQ-004</t>
+        </is>
+      </c>
+      <c r="F33" s="86" t="n"/>
+      <c r="G33" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="61" t="inlineStr">
+        <is>
+          <t>substituição - danificado</t>
+        </is>
+      </c>
+      <c r="I33" s="17" t="inlineStr">
+        <is>
+          <t>13/02/2025</t>
+        </is>
+      </c>
+      <c r="J33" s="17" t="n"/>
+      <c r="K33" s="86" t="n"/>
+    </row>
+    <row r="34" ht="57.75" customHeight="1" s="6">
+      <c r="A34" s="17" t="inlineStr">
+        <is>
+          <t>13/02/2025</t>
+        </is>
+      </c>
+      <c r="B34" s="17" t="inlineStr">
+        <is>
+          <t>Manômetro</t>
+        </is>
+      </c>
+      <c r="C34" s="85" t="n"/>
+      <c r="D34" s="86" t="n"/>
+      <c r="E34" s="17" t="inlineStr">
+        <is>
+          <t>MAN-PI-004</t>
+        </is>
+      </c>
+      <c r="F34" s="86" t="n"/>
+      <c r="G34" s="18" t="inlineStr">
+        <is>
+          <t>0 - 350</t>
+        </is>
+      </c>
+      <c r="H34" s="61" t="inlineStr">
+        <is>
+          <t>devolução - None</t>
+        </is>
+      </c>
+      <c r="I34" s="17" t="inlineStr">
+        <is>
+          <t>13/02/2025</t>
+        </is>
+      </c>
+      <c r="J34" s="17" t="n"/>
+      <c r="K34" s="86" t="n"/>
+    </row>
+    <row r="35" ht="57.75" customHeight="1" s="6">
+      <c r="A35" s="17" t="inlineStr">
+        <is>
+          <t>13/02/2025</t>
+        </is>
+      </c>
+      <c r="B35" s="17" t="inlineStr">
+        <is>
+          <t>Manômetro</t>
+        </is>
+      </c>
+      <c r="C35" s="85" t="n"/>
+      <c r="D35" s="86" t="n"/>
+      <c r="E35" s="17" t="inlineStr">
+        <is>
+          <t>MAN-PI-004</t>
+        </is>
+      </c>
+      <c r="F35" s="86" t="n"/>
+      <c r="G35" s="18" t="inlineStr">
+        <is>
+          <t>0 - 350</t>
+        </is>
+      </c>
+      <c r="H35" s="61" t="inlineStr">
+        <is>
+          <t>devolução - None</t>
+        </is>
+      </c>
+      <c r="I35" s="17" t="inlineStr">
+        <is>
+          <t>13/02/2025</t>
+        </is>
+      </c>
+      <c r="J35" s="17" t="n"/>
+      <c r="K35" s="86" t="n"/>
+    </row>
+    <row r="36" ht="57.75" customHeight="1" s="6">
+      <c r="A36" s="17" t="inlineStr">
+        <is>
+          <t>13/02/2025</t>
+        </is>
+      </c>
+      <c r="B36" s="17" t="inlineStr">
+        <is>
+          <t>Gôniometro</t>
+        </is>
+      </c>
+      <c r="C36" s="85" t="n"/>
+      <c r="D36" s="86" t="n"/>
+      <c r="E36" s="17" t="inlineStr">
+        <is>
+          <t>GON-CQ-004</t>
+        </is>
+      </c>
+      <c r="F36" s="86" t="n"/>
+      <c r="G36" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="61" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="I36" s="17" t="n"/>
+      <c r="J36" s="17" t="n"/>
+      <c r="K36" s="86" t="n"/>
+    </row>
+    <row r="37" ht="57.75" customHeight="1" s="6">
+      <c r="A37" s="17" t="inlineStr">
+        <is>
+          <t>13/02/2025</t>
+        </is>
+      </c>
+      <c r="B37" s="17" t="inlineStr">
+        <is>
+          <t>Manômetro</t>
+        </is>
+      </c>
+      <c r="C37" s="85" t="n"/>
+      <c r="D37" s="86" t="n"/>
+      <c r="E37" s="17" t="inlineStr">
+        <is>
+          <t>MAN-PI-004</t>
+        </is>
+      </c>
+      <c r="F37" s="86" t="n"/>
+      <c r="G37" s="18" t="inlineStr">
+        <is>
+          <t>0 - 350</t>
+        </is>
+      </c>
+      <c r="H37" s="61" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="I37" s="17" t="n"/>
+      <c r="J37" s="17" t="n"/>
+      <c r="K37" s="86" t="n"/>
+    </row>
+    <row r="38" ht="57.75" customHeight="1" s="6">
+      <c r="A38" s="17" t="inlineStr">
+        <is>
+          <t>14/02/2025</t>
+        </is>
+      </c>
+      <c r="B38" s="17" t="inlineStr">
+        <is>
+          <t>Manômetro</t>
+        </is>
+      </c>
+      <c r="C38" s="85" t="n"/>
+      <c r="D38" s="86" t="n"/>
+      <c r="E38" s="17" t="inlineStr">
+        <is>
+          <t>MAN-PI-004</t>
+        </is>
+      </c>
+      <c r="F38" s="86" t="n"/>
+      <c r="G38" s="18" t="inlineStr">
+        <is>
+          <t>0 - 350</t>
+        </is>
+      </c>
+      <c r="H38" s="61" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="I38" s="17" t="n"/>
+      <c r="J38" s="17" t="n"/>
+      <c r="K38" s="86" t="n"/>
+    </row>
+    <row r="39" ht="57.75" customHeight="1" s="6">
+      <c r="A39" s="17" t="inlineStr">
+        <is>
+          <t>17/02/2025</t>
+        </is>
+      </c>
+      <c r="B39" s="17" t="inlineStr">
+        <is>
+          <t>Manômetro</t>
+        </is>
+      </c>
+      <c r="C39" s="85" t="n"/>
+      <c r="D39" s="86" t="n"/>
+      <c r="E39" s="17" t="inlineStr">
+        <is>
+          <t>MAN-PI-004</t>
+        </is>
+      </c>
+      <c r="F39" s="86" t="n"/>
+      <c r="G39" s="18" t="inlineStr">
+        <is>
+          <t>0 - 350</t>
+        </is>
+      </c>
+      <c r="H39" s="61" t="inlineStr">
+        <is>
+          <t>devolução - None</t>
+        </is>
+      </c>
+      <c r="I39" s="17" t="inlineStr">
+        <is>
+          <t>17/02/2025</t>
+        </is>
+      </c>
+      <c r="J39" s="17" t="n"/>
+      <c r="K39" s="86" t="n"/>
+    </row>
+    <row r="40" ht="57.75" customHeight="1" s="6">
+      <c r="A40" s="17" t="inlineStr">
+        <is>
+          <t>18/02/2025</t>
+        </is>
+      </c>
+      <c r="B40" s="17" t="inlineStr">
+        <is>
+          <t>Gôniometro</t>
+        </is>
+      </c>
+      <c r="C40" s="85" t="n"/>
+      <c r="D40" s="86" t="n"/>
+      <c r="E40" s="17" t="inlineStr">
+        <is>
+          <t>GON-CQ-004</t>
+        </is>
+      </c>
+      <c r="F40" s="86" t="n"/>
+      <c r="G40" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="61" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="I40" s="17" t="n"/>
+      <c r="J40" s="17" t="n"/>
+      <c r="K40" s="86" t="n"/>
+    </row>
+    <row r="41" ht="57.75" customHeight="1" s="6">
+      <c r="A41" s="17" t="inlineStr">
+        <is>
+          <t>19/02/2025</t>
+        </is>
+      </c>
+      <c r="B41" s="17" t="inlineStr">
+        <is>
+          <t>Manômetro</t>
+        </is>
+      </c>
+      <c r="C41" s="85" t="n"/>
+      <c r="D41" s="86" t="n"/>
+      <c r="E41" s="17" t="inlineStr">
+        <is>
+          <t>MAN-PI-005</t>
+        </is>
+      </c>
+      <c r="F41" s="86" t="n"/>
+      <c r="G41" s="18" t="inlineStr">
+        <is>
+          <t>0 - 350</t>
+        </is>
+      </c>
+      <c r="H41" s="61" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="I41" s="17" t="n"/>
+      <c r="J41" s="17" t="n"/>
+      <c r="K41" s="86" t="n"/>
+    </row>
+    <row r="42" ht="57.75" customHeight="1" s="6">
+      <c r="A42" s="17" t="inlineStr">
+        <is>
+          <t>19/02/2025</t>
+        </is>
+      </c>
+      <c r="B42" s="17" t="inlineStr">
+        <is>
+          <t>Manômetro</t>
+        </is>
+      </c>
+      <c r="C42" s="85" t="n"/>
+      <c r="D42" s="86" t="n"/>
+      <c r="E42" s="17" t="inlineStr">
+        <is>
+          <t>MAN-PI-004</t>
+        </is>
+      </c>
+      <c r="F42" s="86" t="n"/>
+      <c r="G42" s="18" t="inlineStr">
+        <is>
+          <t>0 - 350</t>
+        </is>
+      </c>
+      <c r="H42" s="61" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="I42" s="17" t="n"/>
+      <c r="J42" s="17" t="n"/>
+      <c r="K42" s="86" t="n"/>
+    </row>
+    <row r="43" ht="57.75" customHeight="1" s="6">
+      <c r="A43" s="17" t="inlineStr">
+        <is>
+          <t>19/02/2025</t>
+        </is>
+      </c>
+      <c r="B43" s="17" t="inlineStr">
+        <is>
+          <t>Gôniometro</t>
+        </is>
+      </c>
+      <c r="C43" s="85" t="n"/>
+      <c r="D43" s="86" t="n"/>
+      <c r="E43" s="17" t="inlineStr">
+        <is>
+          <t>GON-CQ-004</t>
+        </is>
+      </c>
+      <c r="F43" s="86" t="n"/>
+      <c r="G43" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H43" s="61" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="I43" s="17" t="n"/>
+      <c r="J43" s="17" t="n"/>
+      <c r="K43" s="86" t="n"/>
+    </row>
+    <row r="44" ht="57.75" customHeight="1" s="6">
+      <c r="A44" s="17" t="inlineStr">
+        <is>
+          <t>24/02/2025</t>
+        </is>
+      </c>
+      <c r="B44" s="17" t="inlineStr">
+        <is>
+          <t>Manômetro</t>
+        </is>
+      </c>
+      <c r="C44" s="85" t="n"/>
+      <c r="D44" s="86" t="n"/>
+      <c r="E44" s="17" t="inlineStr">
+        <is>
+          <t>MAN-PI-005</t>
+        </is>
+      </c>
+      <c r="F44" s="86" t="n"/>
+      <c r="G44" s="18" t="inlineStr">
+        <is>
+          <t>0 - 350</t>
+        </is>
+      </c>
+      <c r="H44" s="61" t="inlineStr">
+        <is>
+          <t>devolução - None</t>
+        </is>
+      </c>
+      <c r="I44" s="17" t="inlineStr">
+        <is>
+          <t>24/02/2025</t>
+        </is>
+      </c>
+      <c r="J44" s="17" t="n"/>
+      <c r="K44" s="86" t="n"/>
+    </row>
+    <row r="45" ht="57.75" customHeight="1" s="6">
+      <c r="A45" s="17" t="inlineStr">
+        <is>
+          <t>24/02/2025</t>
+        </is>
+      </c>
+      <c r="B45" s="17" t="inlineStr">
+        <is>
+          <t>Manômetro</t>
+        </is>
+      </c>
+      <c r="C45" s="85" t="n"/>
+      <c r="D45" s="86" t="n"/>
+      <c r="E45" s="17" t="inlineStr">
+        <is>
+          <t>MAN-PI-004</t>
+        </is>
+      </c>
+      <c r="F45" s="86" t="n"/>
+      <c r="G45" s="18" t="inlineStr">
+        <is>
+          <t>0 - 350</t>
+        </is>
+      </c>
+      <c r="H45" s="61" t="inlineStr">
+        <is>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="I45" s="17" t="n"/>
+      <c r="J45" s="17" t="n"/>
+      <c r="K45" s="86" t="n"/>
+    </row>
+    <row r="46" ht="57.75" customHeight="1" s="6">
+      <c r="A46" s="17" t="inlineStr">
+        <is>
+          <t>27/02/2025</t>
+        </is>
+      </c>
+      <c r="B46" s="17" t="inlineStr">
+        <is>
+          <t>Gôniometro</t>
+        </is>
+      </c>
+      <c r="C46" s="85" t="n"/>
+      <c r="D46" s="86" t="n"/>
+      <c r="E46" s="17" t="inlineStr">
+        <is>
+          <t>GON-CQ-004</t>
+        </is>
+      </c>
+      <c r="F46" s="86" t="n"/>
+      <c r="G46" s="18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" s="61" t="inlineStr">
+        <is>
+          <t>devolução - None</t>
+        </is>
+      </c>
+      <c r="I46" s="17" t="inlineStr">
+        <is>
+          <t>27/02/2025</t>
+        </is>
+      </c>
+      <c r="J46" s="17" t="n"/>
+      <c r="K46" s="86" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="108">
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B17:D17"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="J28:K28"/>
     <mergeCell ref="K1:K4"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="J45:K45"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C3:G4"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="J31:K31"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="A8:K10"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="C1:G2"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="C3:G4"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E41:F41"/>
     <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:G2"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="J43:K43"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="E37:F37"/>
     <mergeCell ref="H7:K7"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="E21:F21"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/media/ficha/Termo de Responsabilidade Equipamentos de Medição_Atualizado-Luan Araújo.xlsx
+++ b/media/ficha/Termo de Responsabilidade Equipamentos de Medição_Atualizado-Luan Araújo.xlsx
@@ -779,7 +779,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>25</row>
+      <row>17</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1619250" cy="762000"/>
@@ -804,7 +804,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>26</row>
+      <row>19</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1619250" cy="762000"/>
@@ -829,7 +829,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>27</row>
+      <row>21</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1619250" cy="762000"/>
@@ -852,306 +852,6 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>28</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1619250" cy="762000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>29</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1619250" cy="762000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="7" name="Image 7" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>30</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1619250" cy="762000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="8" name="Image 8" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>31</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1619250" cy="762000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="9" name="Image 9" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId9"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>35</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1619250" cy="762000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="10" name="Image 10" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId10"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>36</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1619250" cy="762000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="11" name="Image 11" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId11"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>37</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1619250" cy="762000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="12" name="Image 12" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId12"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>39</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1619250" cy="762000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="13" name="Image 13" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId13"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>40</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1619250" cy="762000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="14" name="Image 14" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId14"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>41</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1619250" cy="762000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="15" name="Image 15" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId15"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>42</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1619250" cy="762000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="16" name="Image 16" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId16"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>44</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1619250" cy="762000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="17" name="Image 17" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId17"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
       <col>3</col>
       <colOff>0</colOff>
       <row>11</row>
@@ -1160,11 +860,11 @@
     <ext cx="952500" cy="476250"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId18"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1380,7 +1080,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
@@ -1677,72 +1377,68 @@
     <row r="18" ht="57.75" customHeight="1" s="6">
       <c r="A18" s="17" t="inlineStr">
         <is>
-          <t>04/02/2025</t>
+          <t>14/02/2025</t>
         </is>
       </c>
       <c r="B18" s="17" t="inlineStr">
         <is>
-          <t>Gôniometro</t>
+          <t>Trena</t>
         </is>
       </c>
       <c r="C18" s="85" t="n"/>
       <c r="D18" s="86" t="n"/>
       <c r="E18" s="17" t="inlineStr">
         <is>
-          <t>GON-CQ-004</t>
+          <t>TRE-CQ-044</t>
         </is>
       </c>
       <c r="F18" s="86" t="n"/>
       <c r="G18" s="18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0 - 5000</t>
         </is>
       </c>
       <c r="H18" s="61" t="inlineStr">
         <is>
-          <t>devolução - None</t>
-        </is>
-      </c>
-      <c r="I18" s="17" t="inlineStr">
-        <is>
-          <t>04/02/2025</t>
-        </is>
-      </c>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="I18" s="17" t="n"/>
       <c r="J18" s="17" t="n"/>
       <c r="K18" s="86" t="n"/>
     </row>
     <row r="19" ht="57.75" customHeight="1" s="6">
       <c r="A19" s="17" t="inlineStr">
         <is>
-          <t>12/02/2025</t>
+          <t>17/02/2025</t>
         </is>
       </c>
       <c r="B19" s="17" t="inlineStr">
         <is>
-          <t>Manômetro</t>
+          <t>Trena</t>
         </is>
       </c>
       <c r="C19" s="85" t="n"/>
       <c r="D19" s="86" t="n"/>
       <c r="E19" s="17" t="inlineStr">
         <is>
-          <t>MAN-PI-005</t>
+          <t>TRE-CQ-044</t>
         </is>
       </c>
       <c r="F19" s="86" t="n"/>
       <c r="G19" s="18" t="inlineStr">
         <is>
-          <t>0 - 350</t>
+          <t>0 - 5000</t>
         </is>
       </c>
       <c r="H19" s="61" t="inlineStr">
         <is>
-          <t>devolução - None</t>
+          <t>devolução - calibração</t>
         </is>
       </c>
       <c r="I19" s="17" t="inlineStr">
         <is>
-          <t>12/02/2025</t>
+          <t>17/02/2025</t>
         </is>
       </c>
       <c r="J19" s="17" t="n"/>
@@ -1751,72 +1447,68 @@
     <row r="20" ht="57.75" customHeight="1" s="6">
       <c r="A20" s="17" t="inlineStr">
         <is>
-          <t>12/02/2025</t>
+          <t>24/02/2025</t>
         </is>
       </c>
       <c r="B20" s="17" t="inlineStr">
         <is>
-          <t>Manômetro</t>
+          <t>Trena</t>
         </is>
       </c>
       <c r="C20" s="85" t="n"/>
       <c r="D20" s="86" t="n"/>
       <c r="E20" s="17" t="inlineStr">
         <is>
-          <t>MAN-PI-004</t>
+          <t>TRE-CQ-048</t>
         </is>
       </c>
       <c r="F20" s="86" t="n"/>
       <c r="G20" s="18" t="inlineStr">
         <is>
-          <t>0 - 350</t>
+          <t>0 - 400, 0 - 380</t>
         </is>
       </c>
       <c r="H20" s="61" t="inlineStr">
         <is>
-          <t>devolução - None</t>
-        </is>
-      </c>
-      <c r="I20" s="17" t="inlineStr">
-        <is>
-          <t>12/02/2025</t>
-        </is>
-      </c>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="I20" s="17" t="n"/>
       <c r="J20" s="17" t="n"/>
       <c r="K20" s="86" t="n"/>
     </row>
     <row r="21" ht="57.75" customHeight="1" s="6">
       <c r="A21" s="17" t="inlineStr">
         <is>
-          <t>12/02/2025</t>
+          <t>25/02/2025</t>
         </is>
       </c>
       <c r="B21" s="17" t="inlineStr">
         <is>
-          <t>Gôniometro</t>
+          <t>Trena</t>
         </is>
       </c>
       <c r="C21" s="85" t="n"/>
       <c r="D21" s="86" t="n"/>
       <c r="E21" s="17" t="inlineStr">
         <is>
-          <t>GON-CQ-004</t>
+          <t>TRE-CQ-048</t>
         </is>
       </c>
       <c r="F21" s="86" t="n"/>
       <c r="G21" s="18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0 - 400, 0 - 380</t>
         </is>
       </c>
       <c r="H21" s="61" t="inlineStr">
         <is>
-          <t>devolução - None</t>
+          <t>substituição - calibração</t>
         </is>
       </c>
       <c r="I21" s="17" t="inlineStr">
         <is>
-          <t>12/02/2025</t>
+          <t>25/02/2025</t>
         </is>
       </c>
       <c r="J21" s="17" t="n"/>
@@ -1825,978 +1517,74 @@
     <row r="22" ht="57.75" customHeight="1" s="6">
       <c r="A22" s="17" t="inlineStr">
         <is>
-          <t>12/02/2025</t>
+          <t>25/02/2025</t>
         </is>
       </c>
       <c r="B22" s="17" t="inlineStr">
         <is>
-          <t>Gôniometro</t>
+          <t>Trena</t>
         </is>
       </c>
       <c r="C22" s="85" t="n"/>
       <c r="D22" s="86" t="n"/>
       <c r="E22" s="17" t="inlineStr">
         <is>
-          <t>GON-CQ-004</t>
+          <t>TRE-CQ-056</t>
         </is>
       </c>
       <c r="F22" s="86" t="n"/>
       <c r="G22" s="18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0 - 400</t>
         </is>
       </c>
       <c r="H22" s="61" t="inlineStr">
         <is>
-          <t>devolução - None</t>
-        </is>
-      </c>
-      <c r="I22" s="17" t="inlineStr">
-        <is>
-          <t>12/02/2025</t>
-        </is>
-      </c>
+          <t>Entrega</t>
+        </is>
+      </c>
+      <c r="I22" s="17" t="n"/>
       <c r="J22" s="17" t="n"/>
       <c r="K22" s="86" t="n"/>
     </row>
-    <row r="23" ht="57.75" customHeight="1" s="6">
-      <c r="A23" s="17" t="inlineStr">
-        <is>
-          <t>12/02/2025</t>
-        </is>
-      </c>
-      <c r="B23" s="17" t="inlineStr">
-        <is>
-          <t>Manômetro</t>
-        </is>
-      </c>
-      <c r="C23" s="85" t="n"/>
-      <c r="D23" s="86" t="n"/>
-      <c r="E23" s="17" t="inlineStr">
-        <is>
-          <t>MAN-PI-004</t>
-        </is>
-      </c>
-      <c r="F23" s="86" t="n"/>
-      <c r="G23" s="18" t="inlineStr">
-        <is>
-          <t>0 - 350</t>
-        </is>
-      </c>
-      <c r="H23" s="61" t="inlineStr">
-        <is>
-          <t>devolução - None</t>
-        </is>
-      </c>
-      <c r="I23" s="17" t="inlineStr">
-        <is>
-          <t>12/02/2025</t>
-        </is>
-      </c>
-      <c r="J23" s="17" t="n"/>
-      <c r="K23" s="86" t="n"/>
-    </row>
-    <row r="24" ht="57.75" customHeight="1" s="6">
-      <c r="A24" s="17" t="inlineStr">
-        <is>
-          <t>12/02/2025</t>
-        </is>
-      </c>
-      <c r="B24" s="17" t="inlineStr">
-        <is>
-          <t>Manômetro</t>
-        </is>
-      </c>
-      <c r="C24" s="85" t="n"/>
-      <c r="D24" s="86" t="n"/>
-      <c r="E24" s="17" t="inlineStr">
-        <is>
-          <t>MAN-PI-004</t>
-        </is>
-      </c>
-      <c r="F24" s="86" t="n"/>
-      <c r="G24" s="18" t="inlineStr">
-        <is>
-          <t>0 - 350</t>
-        </is>
-      </c>
-      <c r="H24" s="61" t="inlineStr">
-        <is>
-          <t>devolução - None</t>
-        </is>
-      </c>
-      <c r="I24" s="17" t="inlineStr">
-        <is>
-          <t>12/02/2025</t>
-        </is>
-      </c>
-      <c r="J24" s="17" t="n"/>
-      <c r="K24" s="86" t="n"/>
-    </row>
-    <row r="25" ht="57.75" customHeight="1" s="6">
-      <c r="A25" s="17" t="inlineStr">
-        <is>
-          <t>12/02/2025</t>
-        </is>
-      </c>
-      <c r="B25" s="17" t="inlineStr">
-        <is>
-          <t>Manômetro</t>
-        </is>
-      </c>
-      <c r="C25" s="85" t="n"/>
-      <c r="D25" s="86" t="n"/>
-      <c r="E25" s="17" t="inlineStr">
-        <is>
-          <t>MAN-PI-005</t>
-        </is>
-      </c>
-      <c r="F25" s="86" t="n"/>
-      <c r="G25" s="18" t="inlineStr">
-        <is>
-          <t>0 - 350</t>
-        </is>
-      </c>
-      <c r="H25" s="61" t="inlineStr">
-        <is>
-          <t>substituição - calibração</t>
-        </is>
-      </c>
-      <c r="I25" s="17" t="inlineStr">
-        <is>
-          <t>12/02/2025</t>
-        </is>
-      </c>
-      <c r="J25" s="17" t="n"/>
-      <c r="K25" s="86" t="n"/>
-    </row>
-    <row r="26" ht="57.75" customHeight="1" s="6">
-      <c r="A26" s="17" t="inlineStr">
-        <is>
-          <t>12/02/2025</t>
-        </is>
-      </c>
-      <c r="B26" s="17" t="inlineStr">
-        <is>
-          <t>Gôniometro</t>
-        </is>
-      </c>
-      <c r="C26" s="85" t="n"/>
-      <c r="D26" s="86" t="n"/>
-      <c r="E26" s="17" t="inlineStr">
-        <is>
-          <t>GON-CQ-004</t>
-        </is>
-      </c>
-      <c r="F26" s="86" t="n"/>
-      <c r="G26" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H26" s="61" t="inlineStr">
-        <is>
-          <t>Entrega</t>
-        </is>
-      </c>
-      <c r="I26" s="17" t="n"/>
-      <c r="J26" s="17" t="n"/>
-      <c r="K26" s="86" t="n"/>
-    </row>
-    <row r="27" ht="57.75" customHeight="1" s="6">
-      <c r="A27" s="17" t="inlineStr">
-        <is>
-          <t>12/02/2025</t>
-        </is>
-      </c>
-      <c r="B27" s="17" t="inlineStr">
-        <is>
-          <t>Manômetro</t>
-        </is>
-      </c>
-      <c r="C27" s="85" t="n"/>
-      <c r="D27" s="86" t="n"/>
-      <c r="E27" s="17" t="inlineStr">
-        <is>
-          <t>MAN-PI-005</t>
-        </is>
-      </c>
-      <c r="F27" s="86" t="n"/>
-      <c r="G27" s="18" t="inlineStr">
-        <is>
-          <t>0 - 350</t>
-        </is>
-      </c>
-      <c r="H27" s="61" t="inlineStr">
-        <is>
-          <t>Entrega</t>
-        </is>
-      </c>
-      <c r="I27" s="17" t="n"/>
-      <c r="J27" s="17" t="n"/>
-      <c r="K27" s="86" t="n"/>
-    </row>
-    <row r="28" ht="57.75" customHeight="1" s="6">
-      <c r="A28" s="17" t="inlineStr">
-        <is>
-          <t>12/02/2025</t>
-        </is>
-      </c>
-      <c r="B28" s="17" t="inlineStr">
-        <is>
-          <t>Manômetro</t>
-        </is>
-      </c>
-      <c r="C28" s="85" t="n"/>
-      <c r="D28" s="86" t="n"/>
-      <c r="E28" s="17" t="inlineStr">
-        <is>
-          <t>MAN-PI-004</t>
-        </is>
-      </c>
-      <c r="F28" s="86" t="n"/>
-      <c r="G28" s="18" t="inlineStr">
-        <is>
-          <t>0 - 350</t>
-        </is>
-      </c>
-      <c r="H28" s="61" t="inlineStr">
-        <is>
-          <t>Entrega</t>
-        </is>
-      </c>
-      <c r="I28" s="17" t="n"/>
-      <c r="J28" s="17" t="n"/>
-      <c r="K28" s="86" t="n"/>
-    </row>
-    <row r="29" ht="57.75" customHeight="1" s="6">
-      <c r="A29" s="17" t="inlineStr">
-        <is>
-          <t>12/02/2025</t>
-        </is>
-      </c>
-      <c r="B29" s="17" t="inlineStr">
-        <is>
-          <t>Gôniometro</t>
-        </is>
-      </c>
-      <c r="C29" s="85" t="n"/>
-      <c r="D29" s="86" t="n"/>
-      <c r="E29" s="17" t="inlineStr">
-        <is>
-          <t>GON-CQ-004</t>
-        </is>
-      </c>
-      <c r="F29" s="86" t="n"/>
-      <c r="G29" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H29" s="61" t="inlineStr">
-        <is>
-          <t>Entrega</t>
-        </is>
-      </c>
-      <c r="I29" s="17" t="n"/>
-      <c r="J29" s="17" t="n"/>
-      <c r="K29" s="86" t="n"/>
-    </row>
-    <row r="30" ht="57.75" customHeight="1" s="6">
-      <c r="A30" s="17" t="inlineStr">
-        <is>
-          <t>12/02/2025</t>
-        </is>
-      </c>
-      <c r="B30" s="17" t="inlineStr">
-        <is>
-          <t>Manômetro</t>
-        </is>
-      </c>
-      <c r="C30" s="85" t="n"/>
-      <c r="D30" s="86" t="n"/>
-      <c r="E30" s="17" t="inlineStr">
-        <is>
-          <t>MAN-PI-005</t>
-        </is>
-      </c>
-      <c r="F30" s="86" t="n"/>
-      <c r="G30" s="18" t="inlineStr">
-        <is>
-          <t>0 - 350</t>
-        </is>
-      </c>
-      <c r="H30" s="61" t="inlineStr">
-        <is>
-          <t>Entrega</t>
-        </is>
-      </c>
-      <c r="I30" s="17" t="n"/>
-      <c r="J30" s="17" t="n"/>
-      <c r="K30" s="86" t="n"/>
-    </row>
-    <row r="31" ht="57.75" customHeight="1" s="6">
-      <c r="A31" s="17" t="inlineStr">
-        <is>
-          <t>12/02/2025</t>
-        </is>
-      </c>
-      <c r="B31" s="17" t="inlineStr">
-        <is>
-          <t>Manômetro</t>
-        </is>
-      </c>
-      <c r="C31" s="85" t="n"/>
-      <c r="D31" s="86" t="n"/>
-      <c r="E31" s="17" t="inlineStr">
-        <is>
-          <t>MAN-PI-004</t>
-        </is>
-      </c>
-      <c r="F31" s="86" t="n"/>
-      <c r="G31" s="18" t="inlineStr">
-        <is>
-          <t>0 - 350</t>
-        </is>
-      </c>
-      <c r="H31" s="61" t="inlineStr">
-        <is>
-          <t>Entrega</t>
-        </is>
-      </c>
-      <c r="I31" s="17" t="n"/>
-      <c r="J31" s="17" t="n"/>
-      <c r="K31" s="86" t="n"/>
-    </row>
-    <row r="32" ht="57.75" customHeight="1" s="6">
-      <c r="A32" s="17" t="inlineStr">
-        <is>
-          <t>12/02/2025</t>
-        </is>
-      </c>
-      <c r="B32" s="17" t="inlineStr">
-        <is>
-          <t>Gôniometro</t>
-        </is>
-      </c>
-      <c r="C32" s="85" t="n"/>
-      <c r="D32" s="86" t="n"/>
-      <c r="E32" s="17" t="inlineStr">
-        <is>
-          <t>GON-CQ-004</t>
-        </is>
-      </c>
-      <c r="F32" s="86" t="n"/>
-      <c r="G32" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H32" s="61" t="inlineStr">
-        <is>
-          <t>Entrega</t>
-        </is>
-      </c>
-      <c r="I32" s="17" t="n"/>
-      <c r="J32" s="17" t="n"/>
-      <c r="K32" s="86" t="n"/>
-    </row>
-    <row r="33" ht="57.75" customHeight="1" s="6">
-      <c r="A33" s="17" t="inlineStr">
-        <is>
-          <t>13/02/2025</t>
-        </is>
-      </c>
-      <c r="B33" s="17" t="inlineStr">
-        <is>
-          <t>Gôniometro</t>
-        </is>
-      </c>
-      <c r="C33" s="85" t="n"/>
-      <c r="D33" s="86" t="n"/>
-      <c r="E33" s="17" t="inlineStr">
-        <is>
-          <t>GON-CQ-004</t>
-        </is>
-      </c>
-      <c r="F33" s="86" t="n"/>
-      <c r="G33" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H33" s="61" t="inlineStr">
-        <is>
-          <t>substituição - danificado</t>
-        </is>
-      </c>
-      <c r="I33" s="17" t="inlineStr">
-        <is>
-          <t>13/02/2025</t>
-        </is>
-      </c>
-      <c r="J33" s="17" t="n"/>
-      <c r="K33" s="86" t="n"/>
-    </row>
-    <row r="34" ht="57.75" customHeight="1" s="6">
-      <c r="A34" s="17" t="inlineStr">
-        <is>
-          <t>13/02/2025</t>
-        </is>
-      </c>
-      <c r="B34" s="17" t="inlineStr">
-        <is>
-          <t>Manômetro</t>
-        </is>
-      </c>
-      <c r="C34" s="85" t="n"/>
-      <c r="D34" s="86" t="n"/>
-      <c r="E34" s="17" t="inlineStr">
-        <is>
-          <t>MAN-PI-004</t>
-        </is>
-      </c>
-      <c r="F34" s="86" t="n"/>
-      <c r="G34" s="18" t="inlineStr">
-        <is>
-          <t>0 - 350</t>
-        </is>
-      </c>
-      <c r="H34" s="61" t="inlineStr">
-        <is>
-          <t>devolução - None</t>
-        </is>
-      </c>
-      <c r="I34" s="17" t="inlineStr">
-        <is>
-          <t>13/02/2025</t>
-        </is>
-      </c>
-      <c r="J34" s="17" t="n"/>
-      <c r="K34" s="86" t="n"/>
-    </row>
-    <row r="35" ht="57.75" customHeight="1" s="6">
-      <c r="A35" s="17" t="inlineStr">
-        <is>
-          <t>13/02/2025</t>
-        </is>
-      </c>
-      <c r="B35" s="17" t="inlineStr">
-        <is>
-          <t>Manômetro</t>
-        </is>
-      </c>
-      <c r="C35" s="85" t="n"/>
-      <c r="D35" s="86" t="n"/>
-      <c r="E35" s="17" t="inlineStr">
-        <is>
-          <t>MAN-PI-004</t>
-        </is>
-      </c>
-      <c r="F35" s="86" t="n"/>
-      <c r="G35" s="18" t="inlineStr">
-        <is>
-          <t>0 - 350</t>
-        </is>
-      </c>
-      <c r="H35" s="61" t="inlineStr">
-        <is>
-          <t>devolução - None</t>
-        </is>
-      </c>
-      <c r="I35" s="17" t="inlineStr">
-        <is>
-          <t>13/02/2025</t>
-        </is>
-      </c>
-      <c r="J35" s="17" t="n"/>
-      <c r="K35" s="86" t="n"/>
-    </row>
-    <row r="36" ht="57.75" customHeight="1" s="6">
-      <c r="A36" s="17" t="inlineStr">
-        <is>
-          <t>13/02/2025</t>
-        </is>
-      </c>
-      <c r="B36" s="17" t="inlineStr">
-        <is>
-          <t>Gôniometro</t>
-        </is>
-      </c>
-      <c r="C36" s="85" t="n"/>
-      <c r="D36" s="86" t="n"/>
-      <c r="E36" s="17" t="inlineStr">
-        <is>
-          <t>GON-CQ-004</t>
-        </is>
-      </c>
-      <c r="F36" s="86" t="n"/>
-      <c r="G36" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H36" s="61" t="inlineStr">
-        <is>
-          <t>Entrega</t>
-        </is>
-      </c>
-      <c r="I36" s="17" t="n"/>
-      <c r="J36" s="17" t="n"/>
-      <c r="K36" s="86" t="n"/>
-    </row>
-    <row r="37" ht="57.75" customHeight="1" s="6">
-      <c r="A37" s="17" t="inlineStr">
-        <is>
-          <t>13/02/2025</t>
-        </is>
-      </c>
-      <c r="B37" s="17" t="inlineStr">
-        <is>
-          <t>Manômetro</t>
-        </is>
-      </c>
-      <c r="C37" s="85" t="n"/>
-      <c r="D37" s="86" t="n"/>
-      <c r="E37" s="17" t="inlineStr">
-        <is>
-          <t>MAN-PI-004</t>
-        </is>
-      </c>
-      <c r="F37" s="86" t="n"/>
-      <c r="G37" s="18" t="inlineStr">
-        <is>
-          <t>0 - 350</t>
-        </is>
-      </c>
-      <c r="H37" s="61" t="inlineStr">
-        <is>
-          <t>Entrega</t>
-        </is>
-      </c>
-      <c r="I37" s="17" t="n"/>
-      <c r="J37" s="17" t="n"/>
-      <c r="K37" s="86" t="n"/>
-    </row>
-    <row r="38" ht="57.75" customHeight="1" s="6">
-      <c r="A38" s="17" t="inlineStr">
-        <is>
-          <t>14/02/2025</t>
-        </is>
-      </c>
-      <c r="B38" s="17" t="inlineStr">
-        <is>
-          <t>Manômetro</t>
-        </is>
-      </c>
-      <c r="C38" s="85" t="n"/>
-      <c r="D38" s="86" t="n"/>
-      <c r="E38" s="17" t="inlineStr">
-        <is>
-          <t>MAN-PI-004</t>
-        </is>
-      </c>
-      <c r="F38" s="86" t="n"/>
-      <c r="G38" s="18" t="inlineStr">
-        <is>
-          <t>0 - 350</t>
-        </is>
-      </c>
-      <c r="H38" s="61" t="inlineStr">
-        <is>
-          <t>Entrega</t>
-        </is>
-      </c>
-      <c r="I38" s="17" t="n"/>
-      <c r="J38" s="17" t="n"/>
-      <c r="K38" s="86" t="n"/>
-    </row>
-    <row r="39" ht="57.75" customHeight="1" s="6">
-      <c r="A39" s="17" t="inlineStr">
-        <is>
-          <t>17/02/2025</t>
-        </is>
-      </c>
-      <c r="B39" s="17" t="inlineStr">
-        <is>
-          <t>Manômetro</t>
-        </is>
-      </c>
-      <c r="C39" s="85" t="n"/>
-      <c r="D39" s="86" t="n"/>
-      <c r="E39" s="17" t="inlineStr">
-        <is>
-          <t>MAN-PI-004</t>
-        </is>
-      </c>
-      <c r="F39" s="86" t="n"/>
-      <c r="G39" s="18" t="inlineStr">
-        <is>
-          <t>0 - 350</t>
-        </is>
-      </c>
-      <c r="H39" s="61" t="inlineStr">
-        <is>
-          <t>devolução - None</t>
-        </is>
-      </c>
-      <c r="I39" s="17" t="inlineStr">
-        <is>
-          <t>17/02/2025</t>
-        </is>
-      </c>
-      <c r="J39" s="17" t="n"/>
-      <c r="K39" s="86" t="n"/>
-    </row>
-    <row r="40" ht="57.75" customHeight="1" s="6">
-      <c r="A40" s="17" t="inlineStr">
-        <is>
-          <t>18/02/2025</t>
-        </is>
-      </c>
-      <c r="B40" s="17" t="inlineStr">
-        <is>
-          <t>Gôniometro</t>
-        </is>
-      </c>
-      <c r="C40" s="85" t="n"/>
-      <c r="D40" s="86" t="n"/>
-      <c r="E40" s="17" t="inlineStr">
-        <is>
-          <t>GON-CQ-004</t>
-        </is>
-      </c>
-      <c r="F40" s="86" t="n"/>
-      <c r="G40" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H40" s="61" t="inlineStr">
-        <is>
-          <t>Entrega</t>
-        </is>
-      </c>
-      <c r="I40" s="17" t="n"/>
-      <c r="J40" s="17" t="n"/>
-      <c r="K40" s="86" t="n"/>
-    </row>
-    <row r="41" ht="57.75" customHeight="1" s="6">
-      <c r="A41" s="17" t="inlineStr">
-        <is>
-          <t>19/02/2025</t>
-        </is>
-      </c>
-      <c r="B41" s="17" t="inlineStr">
-        <is>
-          <t>Manômetro</t>
-        </is>
-      </c>
-      <c r="C41" s="85" t="n"/>
-      <c r="D41" s="86" t="n"/>
-      <c r="E41" s="17" t="inlineStr">
-        <is>
-          <t>MAN-PI-005</t>
-        </is>
-      </c>
-      <c r="F41" s="86" t="n"/>
-      <c r="G41" s="18" t="inlineStr">
-        <is>
-          <t>0 - 350</t>
-        </is>
-      </c>
-      <c r="H41" s="61" t="inlineStr">
-        <is>
-          <t>Entrega</t>
-        </is>
-      </c>
-      <c r="I41" s="17" t="n"/>
-      <c r="J41" s="17" t="n"/>
-      <c r="K41" s="86" t="n"/>
-    </row>
-    <row r="42" ht="57.75" customHeight="1" s="6">
-      <c r="A42" s="17" t="inlineStr">
-        <is>
-          <t>19/02/2025</t>
-        </is>
-      </c>
-      <c r="B42" s="17" t="inlineStr">
-        <is>
-          <t>Manômetro</t>
-        </is>
-      </c>
-      <c r="C42" s="85" t="n"/>
-      <c r="D42" s="86" t="n"/>
-      <c r="E42" s="17" t="inlineStr">
-        <is>
-          <t>MAN-PI-004</t>
-        </is>
-      </c>
-      <c r="F42" s="86" t="n"/>
-      <c r="G42" s="18" t="inlineStr">
-        <is>
-          <t>0 - 350</t>
-        </is>
-      </c>
-      <c r="H42" s="61" t="inlineStr">
-        <is>
-          <t>Entrega</t>
-        </is>
-      </c>
-      <c r="I42" s="17" t="n"/>
-      <c r="J42" s="17" t="n"/>
-      <c r="K42" s="86" t="n"/>
-    </row>
-    <row r="43" ht="57.75" customHeight="1" s="6">
-      <c r="A43" s="17" t="inlineStr">
-        <is>
-          <t>19/02/2025</t>
-        </is>
-      </c>
-      <c r="B43" s="17" t="inlineStr">
-        <is>
-          <t>Gôniometro</t>
-        </is>
-      </c>
-      <c r="C43" s="85" t="n"/>
-      <c r="D43" s="86" t="n"/>
-      <c r="E43" s="17" t="inlineStr">
-        <is>
-          <t>GON-CQ-004</t>
-        </is>
-      </c>
-      <c r="F43" s="86" t="n"/>
-      <c r="G43" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H43" s="61" t="inlineStr">
-        <is>
-          <t>Entrega</t>
-        </is>
-      </c>
-      <c r="I43" s="17" t="n"/>
-      <c r="J43" s="17" t="n"/>
-      <c r="K43" s="86" t="n"/>
-    </row>
-    <row r="44" ht="57.75" customHeight="1" s="6">
-      <c r="A44" s="17" t="inlineStr">
-        <is>
-          <t>24/02/2025</t>
-        </is>
-      </c>
-      <c r="B44" s="17" t="inlineStr">
-        <is>
-          <t>Manômetro</t>
-        </is>
-      </c>
-      <c r="C44" s="85" t="n"/>
-      <c r="D44" s="86" t="n"/>
-      <c r="E44" s="17" t="inlineStr">
-        <is>
-          <t>MAN-PI-005</t>
-        </is>
-      </c>
-      <c r="F44" s="86" t="n"/>
-      <c r="G44" s="18" t="inlineStr">
-        <is>
-          <t>0 - 350</t>
-        </is>
-      </c>
-      <c r="H44" s="61" t="inlineStr">
-        <is>
-          <t>devolução - None</t>
-        </is>
-      </c>
-      <c r="I44" s="17" t="inlineStr">
-        <is>
-          <t>24/02/2025</t>
-        </is>
-      </c>
-      <c r="J44" s="17" t="n"/>
-      <c r="K44" s="86" t="n"/>
-    </row>
-    <row r="45" ht="57.75" customHeight="1" s="6">
-      <c r="A45" s="17" t="inlineStr">
-        <is>
-          <t>24/02/2025</t>
-        </is>
-      </c>
-      <c r="B45" s="17" t="inlineStr">
-        <is>
-          <t>Manômetro</t>
-        </is>
-      </c>
-      <c r="C45" s="85" t="n"/>
-      <c r="D45" s="86" t="n"/>
-      <c r="E45" s="17" t="inlineStr">
-        <is>
-          <t>MAN-PI-004</t>
-        </is>
-      </c>
-      <c r="F45" s="86" t="n"/>
-      <c r="G45" s="18" t="inlineStr">
-        <is>
-          <t>0 - 350</t>
-        </is>
-      </c>
-      <c r="H45" s="61" t="inlineStr">
-        <is>
-          <t>Entrega</t>
-        </is>
-      </c>
-      <c r="I45" s="17" t="n"/>
-      <c r="J45" s="17" t="n"/>
-      <c r="K45" s="86" t="n"/>
-    </row>
-    <row r="46" ht="57.75" customHeight="1" s="6">
-      <c r="A46" s="17" t="inlineStr">
-        <is>
-          <t>27/02/2025</t>
-        </is>
-      </c>
-      <c r="B46" s="17" t="inlineStr">
-        <is>
-          <t>Gôniometro</t>
-        </is>
-      </c>
-      <c r="C46" s="85" t="n"/>
-      <c r="D46" s="86" t="n"/>
-      <c r="E46" s="17" t="inlineStr">
-        <is>
-          <t>GON-CQ-004</t>
-        </is>
-      </c>
-      <c r="F46" s="86" t="n"/>
-      <c r="G46" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H46" s="61" t="inlineStr">
-        <is>
-          <t>devolução - None</t>
-        </is>
-      </c>
-      <c r="I46" s="17" t="inlineStr">
-        <is>
-          <t>27/02/2025</t>
-        </is>
-      </c>
-      <c r="J46" s="17" t="n"/>
-      <c r="K46" s="86" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="108">
-    <mergeCell ref="B42:D42"/>
+  <mergeCells count="36">
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="J19:K19"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="K1:K4"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="C3:G4"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="A8:K10"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:G2"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="C3:G4"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="J43:K43"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="H7:K7"/>
-    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J17:K17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/media/ficha/Termo de Responsabilidade Equipamentos de Medição_Atualizado-Luan Araújo.xlsx
+++ b/media/ficha/Termo de Responsabilidade Equipamentos de Medição_Atualizado-Luan Araújo.xlsx
@@ -802,56 +802,6 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>19</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1619250" cy="762000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>21</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1619250" cy="762000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
       <col>3</col>
       <colOff>0</colOff>
       <row>11</row>
@@ -860,11 +810,11 @@
     <ext cx="952500" cy="476250"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1247,7 +1197,7 @@
       </c>
       <c r="H7" s="52" t="inlineStr">
         <is>
-          <t>Corte e estamparia</t>
+          <t>Corte e Estamparia</t>
         </is>
       </c>
       <c r="I7" s="81" t="n"/>
@@ -1377,7 +1327,7 @@
     <row r="18" ht="57.75" customHeight="1" s="6">
       <c r="A18" s="17" t="inlineStr">
         <is>
-          <t>14/02/2025</t>
+          <t>05/03/2025</t>
         </is>
       </c>
       <c r="B18" s="17" t="inlineStr">
@@ -1410,7 +1360,7 @@
     <row r="19" ht="57.75" customHeight="1" s="6">
       <c r="A19" s="17" t="inlineStr">
         <is>
-          <t>17/02/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="B19" s="17" t="inlineStr">
@@ -1438,117 +1388,40 @@
       </c>
       <c r="I19" s="17" t="inlineStr">
         <is>
-          <t>17/02/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="J19" s="17" t="n"/>
       <c r="K19" s="86" t="n"/>
     </row>
-    <row r="20" ht="57.75" customHeight="1" s="6">
-      <c r="A20" s="17" t="inlineStr">
-        <is>
-          <t>24/02/2025</t>
-        </is>
-      </c>
-      <c r="B20" s="17" t="inlineStr">
-        <is>
-          <t>Trena</t>
-        </is>
-      </c>
-      <c r="C20" s="85" t="n"/>
-      <c r="D20" s="86" t="n"/>
-      <c r="E20" s="17" t="inlineStr">
-        <is>
-          <t>TRE-CQ-048</t>
-        </is>
-      </c>
-      <c r="F20" s="86" t="n"/>
-      <c r="G20" s="18" t="inlineStr">
-        <is>
-          <t>0 - 400, 0 - 380</t>
-        </is>
-      </c>
-      <c r="H20" s="61" t="inlineStr">
-        <is>
-          <t>Entrega</t>
-        </is>
-      </c>
-      <c r="I20" s="17" t="n"/>
-      <c r="J20" s="17" t="n"/>
-      <c r="K20" s="86" t="n"/>
-    </row>
-    <row r="21" ht="57.75" customHeight="1" s="6">
-      <c r="A21" s="17" t="inlineStr">
-        <is>
-          <t>25/02/2025</t>
-        </is>
-      </c>
-      <c r="B21" s="17" t="inlineStr">
-        <is>
-          <t>Trena</t>
-        </is>
-      </c>
-      <c r="C21" s="85" t="n"/>
-      <c r="D21" s="86" t="n"/>
-      <c r="E21" s="17" t="inlineStr">
-        <is>
-          <t>TRE-CQ-048</t>
-        </is>
-      </c>
-      <c r="F21" s="86" t="n"/>
-      <c r="G21" s="18" t="inlineStr">
-        <is>
-          <t>0 - 400, 0 - 380</t>
-        </is>
-      </c>
-      <c r="H21" s="61" t="inlineStr">
-        <is>
-          <t>substituição - calibração</t>
-        </is>
-      </c>
-      <c r="I21" s="17" t="inlineStr">
-        <is>
-          <t>25/02/2025</t>
-        </is>
-      </c>
-      <c r="J21" s="17" t="n"/>
-      <c r="K21" s="86" t="n"/>
-    </row>
-    <row r="22" ht="57.75" customHeight="1" s="6">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t>25/02/2025</t>
-        </is>
-      </c>
-      <c r="B22" s="17" t="inlineStr">
-        <is>
-          <t>Trena</t>
-        </is>
-      </c>
-      <c r="C22" s="85" t="n"/>
-      <c r="D22" s="86" t="n"/>
-      <c r="E22" s="17" t="inlineStr">
-        <is>
-          <t>TRE-CQ-056</t>
-        </is>
-      </c>
-      <c r="F22" s="86" t="n"/>
-      <c r="G22" s="18" t="inlineStr">
-        <is>
-          <t>0 - 400</t>
-        </is>
-      </c>
-      <c r="H22" s="61" t="inlineStr">
-        <is>
-          <t>Entrega</t>
-        </is>
-      </c>
-      <c r="I22" s="17" t="n"/>
-      <c r="J22" s="17" t="n"/>
-      <c r="K22" s="86" t="n"/>
-    </row>
+    <row r="20" ht="12.75" customHeight="1" s="6">
+      <c r="A20" s="7" t="n"/>
+      <c r="B20" s="7" t="n"/>
+      <c r="C20" s="7" t="n"/>
+      <c r="E20" s="7" t="n"/>
+      <c r="F20" s="7" t="n"/>
+      <c r="G20" s="7" t="n"/>
+      <c r="H20" s="7" t="n"/>
+      <c r="I20" s="7" t="n"/>
+      <c r="J20" s="7" t="n"/>
+      <c r="K20" s="7" t="n"/>
+    </row>
+    <row r="21" ht="12.75" customHeight="1" s="6">
+      <c r="A21" s="7" t="n"/>
+      <c r="B21" s="7" t="n"/>
+      <c r="C21" s="7" t="n"/>
+      <c r="D21" s="7" t="n"/>
+      <c r="E21" s="7" t="n"/>
+      <c r="F21" s="7" t="n"/>
+      <c r="G21" s="7" t="n"/>
+      <c r="H21" s="7" t="n"/>
+      <c r="I21" s="7" t="n"/>
+      <c r="J21" s="7" t="n"/>
+      <c r="K21" s="7" t="n"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" s="6"/>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="27">
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="H1:I1"/>
@@ -1559,29 +1432,20 @@
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="K1:K4"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E20:F20"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="C3:G4"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J20:K20"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J22:K22"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J21:K21"/>
     <mergeCell ref="A8:K10"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B22:D22"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:G2"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B21:D21"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="J17:K17"/>
